--- a/raw_data/20200818_saline/20200818_Sensor0_Test_1.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_1.xlsx
@@ -1,6903 +1,7320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030D16A-35B6-432D-8F1E-7A80B0684729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>0.770782</v>
+        <v>0.77078199999999997</v>
       </c>
       <c r="B2" s="1">
-        <v>0.000214</v>
+        <v>2.14E-4</v>
       </c>
       <c r="C2" s="1">
-        <v>900.410000</v>
+        <v>900.41</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.318000</v>
+        <v>-198.31800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>10.845559</v>
       </c>
       <c r="G2" s="1">
-        <v>0.003013</v>
+        <v>3.0130000000000001E-3</v>
       </c>
       <c r="H2" s="1">
-        <v>917.610000</v>
+        <v>917.61</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.018000</v>
+        <v>-168.018</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>21.305650</v>
+        <v>21.30565</v>
       </c>
       <c r="L2" s="1">
-        <v>0.005918</v>
+        <v>5.9179999999999996E-3</v>
       </c>
       <c r="M2" s="1">
-        <v>939.984000</v>
+        <v>939.98400000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.078000</v>
+        <v>-120.078</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>31.832772</v>
+        <v>31.832771999999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.008842</v>
+        <v>8.8419999999999992E-3</v>
       </c>
       <c r="R2" s="1">
-        <v>946.613000</v>
+        <v>946.61300000000006</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.415000</v>
+        <v>-104.41500000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>42.724390</v>
+        <v>42.72439</v>
       </c>
       <c r="V2" s="1">
-        <v>0.011868</v>
+        <v>1.1868E-2</v>
       </c>
       <c r="W2" s="1">
-        <v>953.157000</v>
+        <v>953.15700000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.180800</v>
+        <v>-90.180800000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>52.921695</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.014700</v>
+        <v>1.47E-2</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.517000</v>
+        <v>960.51700000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.223200</v>
+        <v>-80.223200000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>63.178906</v>
+        <v>63.178905999999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.017550</v>
+        <v>1.755E-2</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.468000</v>
+        <v>965.46799999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.241000</v>
+        <v>-79.241</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>72.923808</v>
+        <v>72.923807999999994</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.020257</v>
+        <v>2.0257000000000001E-2</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.503000</v>
+        <v>973.50300000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-86.064500</v>
+        <v>-86.064499999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>83.181570</v>
+        <v>83.181569999999994</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.023106</v>
+        <v>2.3106000000000002E-2</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.698000</v>
+        <v>982.69799999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-99.998300</v>
+        <v>-99.9983</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>94.052420</v>
+        <v>94.052419999999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.026126</v>
+        <v>2.6126E-2</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.977000</v>
+        <v>993.97699999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.286000</v>
+        <v>-120.286</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>105.126101</v>
+        <v>105.12610100000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.029202</v>
+        <v>2.9201999999999999E-2</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.430000</v>
+        <v>1003.43</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.982000</v>
+        <v>-137.982</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>116.080709</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.032245</v>
+        <v>3.2245000000000003E-2</v>
       </c>
       <c r="BF2" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG2" s="1">
-        <v>-218.069000</v>
+        <v>-218.06899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>127.103831</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.035307</v>
+        <v>3.5306999999999998E-2</v>
       </c>
       <c r="BK2" s="1">
-        <v>1123.830000</v>
+        <v>1123.83</v>
       </c>
       <c r="BL2" s="1">
-        <v>-346.792000</v>
+        <v>-346.79199999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>137.800520</v>
+        <v>137.80052000000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.038278</v>
+        <v>3.8278E-2</v>
       </c>
       <c r="BP2" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-545.912000</v>
+        <v>-545.91200000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>148.142107</v>
+        <v>148.14210700000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.041151</v>
+        <v>4.1151E-2</v>
       </c>
       <c r="BU2" s="1">
-        <v>1391.010000</v>
+        <v>1391.01</v>
       </c>
       <c r="BV2" s="1">
-        <v>-758.275000</v>
+        <v>-758.27499999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>158.898381</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.044138</v>
+        <v>4.4137999999999997E-2</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1545.440000</v>
+        <v>1545.44</v>
       </c>
       <c r="CA2" s="1">
-        <v>-980.178000</v>
+        <v>-980.178</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>170.128766</v>
+        <v>170.12876600000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.047258</v>
+        <v>4.7258000000000001E-2</v>
       </c>
       <c r="CE2" s="1">
-        <v>1935.090000</v>
+        <v>1935.09</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1495.450000</v>
+        <v>-1495.45</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>1.142783</v>
+        <v>1.1427830000000001</v>
       </c>
       <c r="B3" s="1">
-        <v>0.000317</v>
+        <v>3.1700000000000001E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>900.395000</v>
+        <v>900.39499999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.382000</v>
+        <v>-198.38200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>11.214571</v>
+        <v>11.214570999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>0.003115</v>
+        <v>3.1150000000000001E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>917.693000</v>
+        <v>917.69299999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.830000</v>
+        <v>-167.83</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>22.005538</v>
+        <v>22.005538000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.006113</v>
+        <v>6.1130000000000004E-3</v>
       </c>
       <c r="M3" s="1">
-        <v>939.834000</v>
+        <v>939.83399999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.018000</v>
+        <v>-120.018</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>32.525684</v>
+        <v>32.525683999999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.009035</v>
+        <v>9.0349999999999996E-3</v>
       </c>
       <c r="R3" s="1">
-        <v>946.658000</v>
+        <v>946.65800000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.414000</v>
+        <v>-104.414</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>43.124690</v>
+        <v>43.124690000000001</v>
       </c>
       <c r="V3" s="1">
-        <v>0.011979</v>
+        <v>1.1979E-2</v>
       </c>
       <c r="W3" s="1">
-        <v>953.177000</v>
+        <v>953.17700000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.316700</v>
+        <v>-90.316699999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>53.273832</v>
+        <v>53.273831999999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.014798</v>
+        <v>1.4798E-2</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.531000</v>
+        <v>960.53099999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.096100</v>
+        <v>-80.096100000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>63.525146</v>
+        <v>63.525145999999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.017646</v>
+        <v>1.7645999999999998E-2</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.513000</v>
+        <v>965.51300000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.210300</v>
+        <v>-79.210300000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>73.307213</v>
+        <v>73.307213000000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.020363</v>
+        <v>2.0362999999999999E-2</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.500000</v>
+        <v>973.5</v>
       </c>
       <c r="AM3" s="1">
-        <v>-86.094300</v>
+        <v>-86.094300000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>83.658261</v>
+        <v>83.658260999999996</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.023238</v>
+        <v>2.3238000000000002E-2</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.675000</v>
+        <v>982.67499999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-99.996000</v>
+        <v>-99.995999999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>94.474978</v>
+        <v>94.474977999999993</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.026243</v>
+        <v>2.6242999999999999E-2</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.974000</v>
+        <v>993.97400000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.255000</v>
+        <v>-120.255</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>105.557091</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.029321</v>
+        <v>2.9321E-2</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.440000</v>
+        <v>1003.44</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.983000</v>
+        <v>-137.983</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>116.441302</v>
+        <v>116.44130199999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.032345</v>
+        <v>3.2344999999999999E-2</v>
       </c>
       <c r="BF3" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG3" s="1">
-        <v>-218.042000</v>
+        <v>-218.042</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>127.479766</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.035411</v>
+        <v>3.5410999999999998E-2</v>
       </c>
       <c r="BK3" s="1">
-        <v>1123.820000</v>
+        <v>1123.82</v>
       </c>
       <c r="BL3" s="1">
-        <v>-346.765000</v>
+        <v>-346.76499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>138.220137</v>
+        <v>138.22013699999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.038394</v>
+        <v>3.8393999999999998E-2</v>
       </c>
       <c r="BP3" s="1">
-        <v>1249.560000</v>
+        <v>1249.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-545.956000</v>
+        <v>-545.95600000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>148.936203</v>
+        <v>148.93620300000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.041371</v>
+        <v>4.1370999999999998E-2</v>
       </c>
       <c r="BU3" s="1">
-        <v>1391.120000</v>
+        <v>1391.12</v>
       </c>
       <c r="BV3" s="1">
-        <v>-758.462000</v>
+        <v>-758.46199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>159.364092</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.044268</v>
+        <v>4.4268000000000002E-2</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1545.570000</v>
+        <v>1545.57</v>
       </c>
       <c r="CA3" s="1">
-        <v>-980.147000</v>
+        <v>-980.14700000000005</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>170.675854</v>
+        <v>170.67585399999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.047410</v>
+        <v>4.7410000000000001E-2</v>
       </c>
       <c r="CE3" s="1">
-        <v>1934.170000</v>
+        <v>1934.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1496.830000</v>
+        <v>-1496.83</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>1.500893</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000417</v>
+        <v>4.17E-4</v>
       </c>
       <c r="C4" s="1">
-        <v>900.480000</v>
+        <v>900.48</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.397000</v>
+        <v>-198.39699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>11.868302</v>
       </c>
       <c r="G4" s="1">
-        <v>0.003297</v>
+        <v>3.297E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>917.474000</v>
+        <v>917.47400000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.003000</v>
+        <v>-168.00299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>22.379025</v>
+        <v>22.379024999999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.006216</v>
+        <v>6.2160000000000002E-3</v>
       </c>
       <c r="M4" s="1">
-        <v>940.071000</v>
+        <v>940.07100000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.036000</v>
+        <v>-120.036</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>32.915540</v>
+        <v>32.91554</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.009143</v>
+        <v>9.1430000000000001E-3</v>
       </c>
       <c r="R4" s="1">
-        <v>946.637000</v>
+        <v>946.63699999999994</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.439000</v>
+        <v>-104.43899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>43.469413</v>
+        <v>43.469413000000003</v>
       </c>
       <c r="V4" s="1">
-        <v>0.012075</v>
+        <v>1.2075000000000001E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>953.179000</v>
+        <v>953.17899999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.268000</v>
+        <v>-90.268000000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>53.621000</v>
+        <v>53.621000000000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.014895</v>
+        <v>1.4895E-2</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.445000</v>
+        <v>960.44500000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.173900</v>
+        <v>-80.173900000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>63.870826</v>
+        <v>63.870826000000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.017742</v>
+        <v>1.7742000000000001E-2</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.536000</v>
+        <v>965.53599999999994</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.251600</v>
+        <v>-79.251599999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>73.725837</v>
+        <v>73.725836999999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.020479</v>
+        <v>2.0479000000000001E-2</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.513000</v>
+        <v>973.51300000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-86.086800</v>
+        <v>-86.086799999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>83.946897</v>
+        <v>83.946897000000007</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.023319</v>
+        <v>2.3318999999999999E-2</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.693000</v>
+        <v>982.69299999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-99.982900</v>
+        <v>-99.982900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>94.823195</v>
+        <v>94.823194999999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.026340</v>
+        <v>2.6339999999999999E-2</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.971000</v>
+        <v>993.971</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.270000</v>
+        <v>-120.27</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>105.916950</v>
+        <v>105.91695</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.029421</v>
+        <v>2.9420999999999999E-2</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.986000</v>
+        <v>-137.98599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>116.803380</v>
+        <v>116.80338</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.032445</v>
+        <v>3.2445000000000002E-2</v>
       </c>
       <c r="BF4" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG4" s="1">
-        <v>-218.064000</v>
+        <v>-218.06399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>127.853255</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.035515</v>
+        <v>3.5514999999999998E-2</v>
       </c>
       <c r="BK4" s="1">
-        <v>1123.840000</v>
+        <v>1123.8399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-346.826000</v>
+        <v>-346.82600000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>138.640743</v>
+        <v>138.64074299999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.038511</v>
+        <v>3.8510999999999997E-2</v>
       </c>
       <c r="BP4" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-545.955000</v>
+        <v>-545.95500000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>149.040858</v>
+        <v>149.04085799999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.041400</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="BU4" s="1">
-        <v>1391.070000</v>
+        <v>1391.07</v>
       </c>
       <c r="BV4" s="1">
-        <v>-758.728000</v>
+        <v>-758.72799999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>159.811483</v>
+        <v>159.81148300000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.044392</v>
+        <v>4.4392000000000001E-2</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1545.560000</v>
+        <v>1545.56</v>
       </c>
       <c r="CA4" s="1">
-        <v>-980.238000</v>
+        <v>-980.23800000000006</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>171.217526</v>
+        <v>171.21752599999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.047560</v>
+        <v>4.7559999999999998E-2</v>
       </c>
       <c r="CE4" s="1">
-        <v>1936.250000</v>
+        <v>1936.25</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1496.230000</v>
+        <v>-1496.23</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>1.939356</v>
+        <v>1.9393560000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>0.000539</v>
+        <v>5.3899999999999998E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>900.283000</v>
+        <v>900.28300000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.361000</v>
+        <v>-198.36099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>12.251679</v>
+        <v>12.251678999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.003403</v>
+        <v>3.4030000000000002E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>917.451000</v>
+        <v>917.45100000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.824000</v>
+        <v>-167.82400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>22.726192</v>
+        <v>22.726192000000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.006313</v>
+        <v>6.313E-3</v>
       </c>
       <c r="M5" s="1">
-        <v>939.897000</v>
+        <v>939.89700000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.032000</v>
+        <v>-120.032</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>33.267666</v>
+        <v>33.267665999999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.009241</v>
+        <v>9.2409999999999992E-3</v>
       </c>
       <c r="R5" s="1">
-        <v>946.612000</v>
+        <v>946.61199999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.490000</v>
+        <v>-104.49</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>43.808645</v>
+        <v>43.808644999999999</v>
       </c>
       <c r="V5" s="1">
-        <v>0.012169</v>
+        <v>1.2168999999999999E-2</v>
       </c>
       <c r="W5" s="1">
-        <v>953.138000</v>
+        <v>953.13800000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.282400</v>
+        <v>-90.282399999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>54.049543</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.015014</v>
+        <v>1.5014E-2</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.442000</v>
+        <v>960.44200000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.177100</v>
+        <v>-80.177099999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>64.290473</v>
+        <v>64.290473000000006</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.017858</v>
+        <v>1.7857999999999999E-2</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.519000</v>
+        <v>965.51900000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.237400</v>
+        <v>-79.237399999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>74.026413</v>
+        <v>74.026413000000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.020563</v>
+        <v>2.0563000000000001E-2</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.496000</v>
+        <v>973.49599999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-86.093500</v>
+        <v>-86.093500000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>84.306000</v>
+        <v>84.305999999999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.023418</v>
+        <v>2.3418000000000001E-2</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.663000</v>
+        <v>982.66300000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.000000</v>
+        <v>-100</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>95.188258</v>
+        <v>95.188258000000005</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.026441</v>
+        <v>2.6440999999999999E-2</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.973000</v>
+        <v>993.97299999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.271000</v>
+        <v>-120.271</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>106.275826</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.029521</v>
+        <v>2.9520999999999999E-2</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.966000</v>
+        <v>-137.96600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>117.533491</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.032648</v>
+        <v>3.2648000000000003E-2</v>
       </c>
       <c r="BF5" s="1">
-        <v>1047.510000</v>
+        <v>1047.51</v>
       </c>
       <c r="BG5" s="1">
-        <v>-218.070000</v>
+        <v>-218.07</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>128.605190</v>
+        <v>128.60518999999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.035724</v>
+        <v>3.5723999999999999E-2</v>
       </c>
       <c r="BK5" s="1">
-        <v>1123.810000</v>
+        <v>1123.81</v>
       </c>
       <c r="BL5" s="1">
-        <v>-346.812000</v>
+        <v>-346.81200000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>139.038535</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.038622</v>
+        <v>3.8621999999999997E-2</v>
       </c>
       <c r="BP5" s="1">
-        <v>1249.580000</v>
+        <v>1249.58</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-545.995000</v>
+        <v>-545.995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>149.474397</v>
+        <v>149.47439700000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.041521</v>
+        <v>4.1521000000000002E-2</v>
       </c>
       <c r="BU5" s="1">
-        <v>1391.010000</v>
+        <v>1391.01</v>
       </c>
       <c r="BV5" s="1">
-        <v>-758.883000</v>
+        <v>-758.88300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>160.240060</v>
+        <v>160.24006</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.044511</v>
+        <v>4.4511000000000002E-2</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1545.490000</v>
+        <v>1545.49</v>
       </c>
       <c r="CA5" s="1">
-        <v>-980.187000</v>
+        <v>-980.18700000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>172.062667</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.047795</v>
+        <v>4.7794999999999997E-2</v>
       </c>
       <c r="CE5" s="1">
-        <v>1934.730000</v>
+        <v>1934.73</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1497.580000</v>
+        <v>-1497.58</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>2.201785</v>
+        <v>2.2017850000000001</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000612</v>
+        <v>6.1200000000000002E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>900.431000</v>
+        <v>900.43100000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.355000</v>
+        <v>-198.35499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>12.597423</v>
+        <v>12.597422999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.003499</v>
+        <v>3.4989999999999999E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>917.428000</v>
+        <v>917.428</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.004000</v>
+        <v>-168.00399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>23.070912</v>
       </c>
       <c r="L6" s="1">
-        <v>0.006409</v>
+        <v>6.4089999999999998E-3</v>
       </c>
       <c r="M6" s="1">
-        <v>940.023000</v>
+        <v>940.02300000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.946000</v>
+        <v>-119.946</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>33.611890</v>
+        <v>33.611890000000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.009337</v>
+        <v>9.3369999999999998E-3</v>
       </c>
       <c r="R6" s="1">
-        <v>946.605000</v>
+        <v>946.60500000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.459000</v>
+        <v>-104.459</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>44.227766</v>
+        <v>44.227766000000003</v>
       </c>
       <c r="V6" s="1">
-        <v>0.012285</v>
+        <v>1.2285000000000001E-2</v>
       </c>
       <c r="W6" s="1">
-        <v>953.179000</v>
+        <v>953.17899999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.330600</v>
+        <v>-90.330600000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>54.319864</v>
+        <v>54.319864000000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.015089</v>
+        <v>1.5089E-2</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.394000</v>
+        <v>960.39400000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.170800</v>
+        <v>-80.1708</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>64.572666</v>
+        <v>64.572665999999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.017937</v>
+        <v>1.7937000000000002E-2</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.507000</v>
+        <v>965.50699999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.223900</v>
+        <v>-79.2239</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>74.376589</v>
+        <v>74.376588999999996</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.020660</v>
+        <v>2.0660000000000001E-2</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.479000</v>
+        <v>973.47900000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-86.090600</v>
+        <v>-86.090599999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>84.667087</v>
+        <v>84.667086999999995</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.023519</v>
+        <v>2.3519000000000002E-2</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.686000</v>
+        <v>982.68600000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.004000</v>
+        <v>-100.004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>95.553311</v>
+        <v>95.553310999999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.026543</v>
+        <v>2.6543000000000001E-2</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.978000</v>
+        <v>993.97799999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.252000</v>
+        <v>-120.252</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>106.995489</v>
+        <v>106.99548900000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.029721</v>
+        <v>2.9721000000000001E-2</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.980000</v>
+        <v>-137.97999999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>117.912436</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.032753</v>
+        <v>3.2752999999999997E-2</v>
       </c>
       <c r="BF6" s="1">
-        <v>1047.480000</v>
+        <v>1047.48</v>
       </c>
       <c r="BG6" s="1">
-        <v>-218.076000</v>
+        <v>-218.07599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>128.978212</v>
+        <v>128.97821200000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.035827</v>
+        <v>3.5826999999999998E-2</v>
       </c>
       <c r="BK6" s="1">
-        <v>1123.820000</v>
+        <v>1123.82</v>
       </c>
       <c r="BL6" s="1">
-        <v>-346.815000</v>
+        <v>-346.815</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>139.462118</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.038739</v>
+        <v>3.8739000000000003E-2</v>
       </c>
       <c r="BP6" s="1">
-        <v>1249.660000</v>
+        <v>1249.6600000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-546.009000</v>
+        <v>-546.00900000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>150.194554</v>
+        <v>150.19455400000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.041721</v>
+        <v>4.1721000000000001E-2</v>
       </c>
       <c r="BU6" s="1">
-        <v>1390.840000</v>
+        <v>1390.84</v>
       </c>
       <c r="BV6" s="1">
-        <v>-758.952000</v>
+        <v>-758.952</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>160.962212</v>
+        <v>160.96221199999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.044712</v>
+        <v>4.4712000000000002E-2</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1545.500000</v>
+        <v>1545.5</v>
       </c>
       <c r="CA6" s="1">
-        <v>-980.224000</v>
+        <v>-980.22400000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>172.296283</v>
+        <v>172.29628299999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.047860</v>
+        <v>4.786E-2</v>
       </c>
       <c r="CE6" s="1">
-        <v>1934.730000</v>
+        <v>1934.73</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1497.610000</v>
+        <v>-1497.61</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>2.540011</v>
+        <v>2.5400109999999998</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000706</v>
+        <v>7.0600000000000003E-4</v>
       </c>
       <c r="C7" s="1">
-        <v>900.443000</v>
+        <v>900.44299999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.324000</v>
+        <v>-198.32400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>12.941926</v>
       </c>
       <c r="G7" s="1">
-        <v>0.003595</v>
+        <v>3.5950000000000001E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>917.574000</v>
+        <v>917.57399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.948000</v>
+        <v>-167.94800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>23.484577</v>
+        <v>23.484577000000002</v>
       </c>
       <c r="L7" s="1">
-        <v>0.006523</v>
+        <v>6.5230000000000002E-3</v>
       </c>
       <c r="M7" s="1">
-        <v>940.035000</v>
+        <v>940.03499999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.936000</v>
+        <v>-119.93600000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>34.072194</v>
+        <v>34.072194000000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.009464</v>
+        <v>9.4640000000000002E-3</v>
       </c>
       <c r="R7" s="1">
-        <v>946.583000</v>
+        <v>946.58299999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.421000</v>
+        <v>-104.42100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>44.508003</v>
+        <v>44.508003000000002</v>
       </c>
       <c r="V7" s="1">
-        <v>0.012363</v>
+        <v>1.2363000000000001E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>953.162000</v>
+        <v>953.16200000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.281000</v>
+        <v>-90.281000000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>54.667558</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.015185</v>
+        <v>1.5185000000000001E-2</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.574000</v>
+        <v>960.57399999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.233600</v>
+        <v>-80.233599999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>64.912954</v>
+        <v>64.912953999999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.018031</v>
+        <v>1.8030999999999998E-2</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.533000</v>
+        <v>965.53300000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.226700</v>
+        <v>-79.226699999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>74.725307</v>
+        <v>74.725307000000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.020757</v>
+        <v>2.0757000000000001E-2</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.481000</v>
+        <v>973.48099999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-86.094000</v>
+        <v>-86.093999999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>85.386287</v>
+        <v>85.386286999999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.023718</v>
+        <v>2.3717999999999999E-2</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.687000</v>
+        <v>982.68700000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-99.983000</v>
+        <v>-99.983000000000004</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>96.281407</v>
+        <v>96.281407000000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.026745</v>
+        <v>2.6745000000000001E-2</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.982000</v>
+        <v>993.98199999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.277000</v>
+        <v>-120.277</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>107.385376</v>
+        <v>107.38537599999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.029829</v>
+        <v>2.9829000000000001E-2</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.986000</v>
+        <v>-137.98599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>118.271538</v>
+        <v>118.27153800000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.032853</v>
+        <v>3.2853E-2</v>
       </c>
       <c r="BF7" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG7" s="1">
-        <v>-218.090000</v>
+        <v>-218.09</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>129.354645</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.035932</v>
+        <v>3.5931999999999999E-2</v>
       </c>
       <c r="BK7" s="1">
-        <v>1123.830000</v>
+        <v>1123.83</v>
       </c>
       <c r="BL7" s="1">
-        <v>-346.825000</v>
+        <v>-346.82499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>140.172887</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.038937</v>
+        <v>3.8936999999999999E-2</v>
       </c>
       <c r="BP7" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-546.033000</v>
+        <v>-546.03300000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>150.316073</v>
+        <v>150.31607299999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.041754</v>
+        <v>4.1753999999999999E-2</v>
       </c>
       <c r="BU7" s="1">
-        <v>1390.650000</v>
+        <v>1390.65</v>
       </c>
       <c r="BV7" s="1">
-        <v>-758.966000</v>
+        <v>-758.96600000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>161.113977</v>
+        <v>161.11397700000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.044754</v>
+        <v>4.4754000000000002E-2</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1545.610000</v>
+        <v>1545.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-980.115000</v>
+        <v>-980.11500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>172.814133</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.048004</v>
+        <v>4.8003999999999998E-2</v>
       </c>
       <c r="CE7" s="1">
-        <v>1936.250000</v>
+        <v>1936.25</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1497.000000</v>
+        <v>-1497</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>2.959635</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000822</v>
+        <v>8.2200000000000003E-4</v>
       </c>
       <c r="C8" s="1">
-        <v>900.274000</v>
+        <v>900.274</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.270000</v>
+        <v>-198.27</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>13.365726</v>
       </c>
       <c r="G8" s="1">
-        <v>0.003713</v>
+        <v>3.7130000000000002E-3</v>
       </c>
       <c r="H8" s="1">
-        <v>917.546000</v>
+        <v>917.54600000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.110000</v>
+        <v>-168.11</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>23.784160</v>
+        <v>23.78416</v>
       </c>
       <c r="L8" s="1">
-        <v>0.006607</v>
+        <v>6.607E-3</v>
       </c>
       <c r="M8" s="1">
-        <v>940.052000</v>
+        <v>940.05200000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.047000</v>
+        <v>-120.047</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>34.311281</v>
+        <v>34.311281000000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.009531</v>
+        <v>9.5309999999999995E-3</v>
       </c>
       <c r="R8" s="1">
-        <v>946.621000</v>
+        <v>946.62099999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.395000</v>
+        <v>-104.395</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>44.851763</v>
+        <v>44.851762999999998</v>
       </c>
       <c r="V8" s="1">
-        <v>0.012459</v>
+        <v>1.2459E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>953.210000</v>
+        <v>953.21</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.252300</v>
+        <v>-90.252300000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>55.006823</v>
+        <v>55.006822999999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.015280</v>
+        <v>1.528E-2</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.586000</v>
+        <v>960.58600000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.196500</v>
+        <v>-80.1965</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>65.258633</v>
+        <v>65.258633000000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.018127</v>
+        <v>1.8127000000000001E-2</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.476000</v>
+        <v>965.476</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.201300</v>
+        <v>-79.201300000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>75.421659</v>
+        <v>75.421659000000005</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.020950</v>
+        <v>2.095E-2</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.488000</v>
+        <v>973.48800000000006</v>
       </c>
       <c r="AM8" s="1">
-        <v>-86.084800</v>
+        <v>-86.084800000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>85.749357</v>
+        <v>85.749357000000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.023819</v>
+        <v>2.3819E-2</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.675000</v>
+        <v>982.67499999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.004000</v>
+        <v>-100.004</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>96.674766</v>
+        <v>96.674766000000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.026854</v>
+        <v>2.6853999999999999E-2</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.970000</v>
+        <v>993.97</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.284000</v>
+        <v>-120.28400000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>107.752416</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.029931</v>
+        <v>2.9930999999999999E-2</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.995000</v>
+        <v>-137.995</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>118.937170</v>
+        <v>118.93716999999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.033038</v>
+        <v>3.3037999999999998E-2</v>
       </c>
       <c r="BF8" s="1">
-        <v>1047.510000</v>
+        <v>1047.51</v>
       </c>
       <c r="BG8" s="1">
-        <v>-218.096000</v>
+        <v>-218.096</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>130.042100</v>
+        <v>130.0421</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.036123</v>
+        <v>3.6123000000000002E-2</v>
       </c>
       <c r="BK8" s="1">
-        <v>1123.820000</v>
+        <v>1123.82</v>
       </c>
       <c r="BL8" s="1">
-        <v>-346.857000</v>
+        <v>-346.85700000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>140.278037</v>
+        <v>140.27803700000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.038966</v>
+        <v>3.8966000000000001E-2</v>
       </c>
       <c r="BP8" s="1">
-        <v>1249.660000</v>
+        <v>1249.6600000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-546.032000</v>
+        <v>-546.03200000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>150.754536</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.041876</v>
+        <v>4.1875999999999997E-2</v>
       </c>
       <c r="BU8" s="1">
-        <v>1390.560000</v>
+        <v>1390.56</v>
       </c>
       <c r="BV8" s="1">
-        <v>-758.900000</v>
+        <v>-758.9</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>161.538057</v>
+        <v>161.53805700000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.044872</v>
+        <v>4.4872000000000002E-2</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1545.710000</v>
+        <v>1545.71</v>
       </c>
       <c r="CA8" s="1">
-        <v>-980.246000</v>
+        <v>-980.24599999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>173.335897</v>
+        <v>173.33589699999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.048149</v>
+        <v>4.8148999999999997E-2</v>
       </c>
       <c r="CE8" s="1">
-        <v>1935.420000</v>
+        <v>1935.42</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1497.580000</v>
+        <v>-1497.58</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>3.240860</v>
+        <v>3.2408600000000001</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000900</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C9" s="1">
-        <v>900.328000</v>
+        <v>900.32799999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.361000</v>
+        <v>-198.36099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>13.634066</v>
+        <v>13.634066000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.003787</v>
+        <v>3.787E-3</v>
       </c>
       <c r="H9" s="1">
-        <v>917.620000</v>
+        <v>917.62</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.119000</v>
+        <v>-168.119</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>24.126896</v>
+        <v>24.126895999999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.006702</v>
+        <v>6.7019999999999996E-3</v>
       </c>
       <c r="M9" s="1">
-        <v>939.945000</v>
+        <v>939.94500000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.173000</v>
+        <v>-120.173</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>34.661921</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.009628</v>
+        <v>9.6279999999999994E-3</v>
       </c>
       <c r="R9" s="1">
-        <v>946.660000</v>
+        <v>946.66</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.459000</v>
+        <v>-104.459</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>45.193016</v>
       </c>
       <c r="V9" s="1">
-        <v>0.012554</v>
+        <v>1.2553999999999999E-2</v>
       </c>
       <c r="W9" s="1">
-        <v>953.234000</v>
+        <v>953.23400000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.323000</v>
+        <v>-90.322999999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>55.714148</v>
+        <v>55.714148000000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.015476</v>
+        <v>1.5476E-2</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.477000</v>
+        <v>960.47699999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.186500</v>
+        <v>-80.186499999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>65.945097</v>
+        <v>65.945097000000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.018318</v>
+        <v>1.8318000000000001E-2</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.510000</v>
+        <v>965.51</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.188700</v>
+        <v>-79.188699999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>75.769673</v>
+        <v>75.769672999999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.021047</v>
+        <v>2.1047E-2</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.508000</v>
+        <v>973.50800000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-86.089900</v>
+        <v>-86.0899</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>86.109982</v>
+        <v>86.109982000000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.023919</v>
+        <v>2.3918999999999999E-2</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.686000</v>
+        <v>982.68600000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-99.992800</v>
+        <v>-99.992800000000003</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>97.040287</v>
+        <v>97.040287000000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.026956</v>
+        <v>2.6956000000000001E-2</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.970000</v>
+        <v>993.97</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.274000</v>
+        <v>-120.274</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>108.410080</v>
+        <v>108.41007999999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.030114</v>
+        <v>3.0113999999999998E-2</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.970000</v>
+        <v>-137.97</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>119.392001</v>
+        <v>119.39200099999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.033164</v>
+        <v>3.3163999999999999E-2</v>
       </c>
       <c r="BF9" s="1">
-        <v>1047.480000</v>
+        <v>1047.48</v>
       </c>
       <c r="BG9" s="1">
-        <v>-218.085000</v>
+        <v>-218.08500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>130.151218</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.036153</v>
+        <v>3.6152999999999998E-2</v>
       </c>
       <c r="BK9" s="1">
-        <v>1123.810000</v>
+        <v>1123.81</v>
       </c>
       <c r="BL9" s="1">
-        <v>-346.835000</v>
+        <v>-346.83499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>140.703619</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.039084</v>
+        <v>3.9084000000000001E-2</v>
       </c>
       <c r="BP9" s="1">
-        <v>1249.600000</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-546.029000</v>
+        <v>-546.029</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>151.180599</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.041995</v>
+        <v>4.1994999999999998E-2</v>
       </c>
       <c r="BU9" s="1">
-        <v>1390.500000</v>
+        <v>1390.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-758.719000</v>
+        <v>-758.71900000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>161.954202</v>
+        <v>161.95420200000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.044987</v>
+        <v>4.4986999999999999E-2</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1545.620000</v>
+        <v>1545.62</v>
       </c>
       <c r="CA9" s="1">
-        <v>-980.359000</v>
+        <v>-980.35900000000004</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>173.883516</v>
+        <v>173.88351599999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.048301</v>
+        <v>4.8300999999999997E-2</v>
       </c>
       <c r="CE9" s="1">
-        <v>1934.550000</v>
+        <v>1934.55</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1497.360000</v>
+        <v>-1497.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>3.582144</v>
       </c>
       <c r="B10" s="1">
-        <v>0.000995</v>
+        <v>9.9500000000000001E-4</v>
       </c>
       <c r="C10" s="1">
-        <v>900.398000</v>
+        <v>900.39800000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.315000</v>
+        <v>-198.315</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>13.979740</v>
+        <v>13.97974</v>
       </c>
       <c r="G10" s="1">
-        <v>0.003883</v>
+        <v>3.8830000000000002E-3</v>
       </c>
       <c r="H10" s="1">
-        <v>917.445000</v>
+        <v>917.44500000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.058000</v>
+        <v>-168.05799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>24.477103</v>
       </c>
       <c r="L10" s="1">
-        <v>0.006799</v>
+        <v>6.7990000000000004E-3</v>
       </c>
       <c r="M10" s="1">
-        <v>940.058000</v>
+        <v>940.05799999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.024000</v>
+        <v>-120.024</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>35.354832</v>
+        <v>35.354832000000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.009821</v>
+        <v>9.8209999999999999E-3</v>
       </c>
       <c r="R10" s="1">
-        <v>946.635000</v>
+        <v>946.63499999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.439000</v>
+        <v>-104.43899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>45.880931</v>
+        <v>45.880930999999997</v>
       </c>
       <c r="V10" s="1">
-        <v>0.012745</v>
+        <v>1.2744999999999999E-2</v>
       </c>
       <c r="W10" s="1">
-        <v>953.174000</v>
+        <v>953.17399999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.283200</v>
+        <v>-90.283199999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>56.063300</v>
+        <v>56.063299999999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.015573</v>
+        <v>1.5573E-2</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.468000</v>
+        <v>960.46799999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.178300</v>
+        <v>-80.178299999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>66.292295</v>
+        <v>66.292294999999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.018415</v>
+        <v>1.8415000000000001E-2</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.519000</v>
+        <v>965.51900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.224500</v>
+        <v>-79.224500000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>76.118043</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.021144</v>
+        <v>2.1144E-2</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.484000</v>
+        <v>973.48400000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-86.093300</v>
+        <v>-86.093299999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>86.775579</v>
+        <v>86.775578999999993</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.024104</v>
+        <v>2.4104E-2</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.687000</v>
+        <v>982.68700000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.015000</v>
+        <v>-100.015</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>97.717697</v>
+        <v>97.717697000000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.027144</v>
+        <v>2.7144000000000001E-2</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.967000</v>
+        <v>993.96699999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.295000</v>
+        <v>-120.295</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>108.817791</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.030227</v>
+        <v>3.0227E-2</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.983000</v>
+        <v>-137.983</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>119.750608</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.033264</v>
+        <v>3.3264000000000002E-2</v>
       </c>
       <c r="BF10" s="1">
-        <v>1047.490000</v>
+        <v>1047.49</v>
       </c>
       <c r="BG10" s="1">
-        <v>-218.097000</v>
+        <v>-218.09700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>130.511346</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.036253</v>
+        <v>3.6253000000000001E-2</v>
       </c>
       <c r="BK10" s="1">
-        <v>1123.830000</v>
+        <v>1123.83</v>
       </c>
       <c r="BL10" s="1">
-        <v>-346.837000</v>
+        <v>-346.83699999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>141.099908</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.039194</v>
+        <v>3.9194E-2</v>
       </c>
       <c r="BP10" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-546.057000</v>
+        <v>-546.05700000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>151.593768</v>
+        <v>151.59376800000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.042109</v>
+        <v>4.2109000000000001E-2</v>
       </c>
       <c r="BU10" s="1">
-        <v>1390.520000</v>
+        <v>1390.52</v>
       </c>
       <c r="BV10" s="1">
-        <v>-758.549000</v>
+        <v>-758.54899999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>162.408536</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.045113</v>
+        <v>4.5113E-2</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1545.620000</v>
+        <v>1545.62</v>
       </c>
       <c r="CA10" s="1">
-        <v>-980.283000</v>
+        <v>-980.28300000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>174.415688</v>
+        <v>174.41568799999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.048449</v>
+        <v>4.8448999999999999E-2</v>
       </c>
       <c r="CE10" s="1">
-        <v>1935.840000</v>
+        <v>1935.84</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1497.400000</v>
+        <v>-1497.4</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>3.923355</v>
+        <v>3.9233549999999999</v>
       </c>
       <c r="B11" s="1">
-        <v>0.001090</v>
+        <v>1.09E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>900.322000</v>
+        <v>900.322</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.520000</v>
+        <v>-198.52</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>14.327932</v>
+        <v>14.327932000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.003980</v>
+        <v>3.98E-3</v>
       </c>
       <c r="H11" s="1">
-        <v>917.605000</v>
+        <v>917.60500000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.092000</v>
+        <v>-168.09200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>25.171502</v>
       </c>
       <c r="L11" s="1">
-        <v>0.006992</v>
+        <v>6.992E-3</v>
       </c>
       <c r="M11" s="1">
-        <v>940.091000</v>
+        <v>940.09100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.000000</v>
+        <v>-120</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>35.706997</v>
+        <v>35.706997000000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.009919</v>
+        <v>9.9190000000000007E-3</v>
       </c>
       <c r="R11" s="1">
-        <v>946.631000</v>
+        <v>946.63099999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.455000</v>
+        <v>-104.455</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>46.226179</v>
+        <v>46.226179000000002</v>
       </c>
       <c r="V11" s="1">
-        <v>0.012841</v>
+        <v>1.2841E-2</v>
       </c>
       <c r="W11" s="1">
-        <v>953.131000</v>
+        <v>953.13099999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.285700</v>
+        <v>-90.285700000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>56.412485</v>
+        <v>56.412484999999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.015670</v>
+        <v>1.567E-2</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.468000</v>
+        <v>960.46799999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.232400</v>
+        <v>-80.232399999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>66.631063</v>
+        <v>66.631062999999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.018509</v>
+        <v>1.8509000000000001E-2</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.474000</v>
+        <v>965.47400000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.205300</v>
+        <v>-79.205299999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>76.775273</v>
+        <v>76.775272999999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.021326</v>
+        <v>2.1326000000000001E-2</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.507000</v>
+        <v>973.50699999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-86.109000</v>
+        <v>-86.108999999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>87.224459</v>
+        <v>87.224458999999996</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.024229</v>
+        <v>2.4229000000000001E-2</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.699000</v>
+        <v>982.69899999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.017000</v>
+        <v>-100.017</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>98.133485</v>
+        <v>98.133484999999993</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.027259</v>
+        <v>2.7258999999999999E-2</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.968000</v>
+        <v>993.96799999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.267000</v>
+        <v>-120.267</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>109.177427</v>
+        <v>109.17742699999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.030327</v>
+        <v>3.0327E-2</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.992000</v>
+        <v>-137.99199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>120.111696</v>
+        <v>120.11169599999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.033364</v>
+        <v>3.3363999999999998E-2</v>
       </c>
       <c r="BF11" s="1">
-        <v>1047.480000</v>
+        <v>1047.48</v>
       </c>
       <c r="BG11" s="1">
-        <v>-218.089000</v>
+        <v>-218.089</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>130.886323</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.036357</v>
+        <v>3.6357E-2</v>
       </c>
       <c r="BK11" s="1">
-        <v>1123.840000</v>
+        <v>1123.8399999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-346.855000</v>
+        <v>-346.85500000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>141.521507</v>
+        <v>141.52150700000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.039312</v>
+        <v>3.9312E-2</v>
       </c>
       <c r="BP11" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-546.092000</v>
+        <v>-546.09199999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>152.023799</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.042229</v>
+        <v>4.2229000000000003E-2</v>
       </c>
       <c r="BU11" s="1">
-        <v>1390.670000</v>
+        <v>1390.67</v>
       </c>
       <c r="BV11" s="1">
-        <v>-758.415000</v>
+        <v>-758.41499999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>162.859895</v>
+        <v>162.85989499999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.045239</v>
+        <v>4.5239000000000001E-2</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1545.610000</v>
+        <v>1545.61</v>
       </c>
       <c r="CA11" s="1">
-        <v>-980.316000</v>
+        <v>-980.31600000000003</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>174.932024</v>
+        <v>174.93202400000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.048592</v>
+        <v>4.8592000000000003E-2</v>
       </c>
       <c r="CE11" s="1">
-        <v>1936.070000</v>
+        <v>1936.07</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1496.200000</v>
+        <v>-1496.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>4.605364</v>
+        <v>4.6053639999999998</v>
       </c>
       <c r="B12" s="1">
-        <v>0.001279</v>
+        <v>1.279E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>900.344000</v>
+        <v>900.34400000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.448000</v>
+        <v>-198.44800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>15.016378</v>
       </c>
       <c r="G12" s="1">
-        <v>0.004171</v>
+        <v>4.1710000000000002E-3</v>
       </c>
       <c r="H12" s="1">
-        <v>917.527000</v>
+        <v>917.52700000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.920000</v>
+        <v>-167.92</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>25.522141</v>
+        <v>25.522141000000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.007089</v>
+        <v>7.0889999999999998E-3</v>
       </c>
       <c r="M12" s="1">
-        <v>940.056000</v>
+        <v>940.05600000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.224000</v>
+        <v>-120.224</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>36.054688</v>
+        <v>36.054687999999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.010015</v>
+        <v>1.0015E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>946.591000</v>
+        <v>946.59100000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.446000</v>
+        <v>-104.446</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>46.566401</v>
+        <v>46.566400999999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.012935</v>
+        <v>1.2935E-2</v>
       </c>
       <c r="W12" s="1">
-        <v>953.212000</v>
+        <v>953.21199999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.345100</v>
+        <v>-90.345100000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>57.063731</v>
+        <v>57.063730999999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.015851</v>
+        <v>1.5851000000000001E-2</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.579000</v>
+        <v>960.57899999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.162200</v>
+        <v>-80.162199999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>67.065062</v>
+        <v>67.065061999999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.018629</v>
+        <v>1.8629E-2</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.473000</v>
+        <v>965.47299999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.207200</v>
+        <v>-79.2072</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>77.162152</v>
+        <v>77.162152000000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.021434</v>
+        <v>2.1434000000000002E-2</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.500000</v>
+        <v>973.5</v>
       </c>
       <c r="AM12" s="1">
-        <v>-86.085300</v>
+        <v>-86.085300000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>87.584555</v>
+        <v>87.584554999999995</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.024329</v>
+        <v>2.4329E-2</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.694000</v>
+        <v>982.69399999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.008000</v>
+        <v>-100.008</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>98.498525</v>
+        <v>98.498525000000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.027361</v>
+        <v>2.7361E-2</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.974000</v>
+        <v>993.97400000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.291000</v>
+        <v>-120.291</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>109.539507</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.030428</v>
+        <v>3.0428E-2</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.982000</v>
+        <v>-137.982</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>120.535316</v>
+        <v>120.53531599999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.033482</v>
+        <v>3.3481999999999998E-2</v>
       </c>
       <c r="BF12" s="1">
-        <v>1047.510000</v>
+        <v>1047.51</v>
       </c>
       <c r="BG12" s="1">
-        <v>-218.098000</v>
+        <v>-218.09800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>131.316817</v>
+        <v>131.31681699999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.036477</v>
+        <v>3.6477000000000002E-2</v>
       </c>
       <c r="BK12" s="1">
-        <v>1123.840000</v>
+        <v>1123.8399999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-346.823000</v>
+        <v>-346.82299999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>141.917315</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.039421</v>
+        <v>3.9420999999999998E-2</v>
       </c>
       <c r="BP12" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-546.095000</v>
+        <v>-546.09500000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>152.453366</v>
+        <v>152.45336599999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.042348</v>
+        <v>4.2347999999999997E-2</v>
       </c>
       <c r="BU12" s="1">
-        <v>1390.780000</v>
+        <v>1390.78</v>
       </c>
       <c r="BV12" s="1">
-        <v>-758.409000</v>
+        <v>-758.40899999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>163.306790</v>
+        <v>163.30679000000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.045363</v>
+        <v>4.5363000000000001E-2</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1545.650000</v>
+        <v>1545.65</v>
       </c>
       <c r="CA12" s="1">
-        <v>-980.482000</v>
+        <v>-980.48199999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>175.448854</v>
+        <v>175.44885400000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.048736</v>
+        <v>4.8736000000000002E-2</v>
       </c>
       <c r="CE12" s="1">
-        <v>1934.700000</v>
+        <v>1934.7</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1495.630000</v>
+        <v>-1495.63</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>4.947592</v>
+        <v>4.9475920000000002</v>
       </c>
       <c r="B13" s="1">
-        <v>0.001374</v>
+        <v>1.374E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>900.235000</v>
+        <v>900.23500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.345000</v>
+        <v>-198.345</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>15.360106</v>
       </c>
       <c r="G13" s="1">
-        <v>0.004267</v>
+        <v>4.267E-3</v>
       </c>
       <c r="H13" s="1">
-        <v>917.546000</v>
+        <v>917.54600000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.051000</v>
+        <v>-168.05099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>25.865901</v>
+        <v>25.865901000000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0.007185</v>
+        <v>7.1850000000000004E-3</v>
       </c>
       <c r="M13" s="1">
-        <v>939.907000</v>
+        <v>939.90700000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.058000</v>
+        <v>-120.05800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>36.706926</v>
+        <v>36.706926000000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.010196</v>
+        <v>1.0196E-2</v>
       </c>
       <c r="R13" s="1">
-        <v>946.646000</v>
+        <v>946.64599999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.412000</v>
+        <v>-104.41200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>47.218144</v>
+        <v>47.218144000000002</v>
       </c>
       <c r="V13" s="1">
-        <v>0.013116</v>
+        <v>1.3115999999999999E-2</v>
       </c>
       <c r="W13" s="1">
-        <v>953.144000</v>
+        <v>953.14400000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.330900</v>
+        <v>-90.3309</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>57.460066</v>
+        <v>57.460065999999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.015961</v>
+        <v>1.5960999999999999E-2</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.523000</v>
+        <v>960.52300000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.313500</v>
+        <v>-80.313500000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>67.322981</v>
+        <v>67.322980999999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.018701</v>
+        <v>1.8700999999999999E-2</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.482000</v>
+        <v>965.48199999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.233600</v>
+        <v>-79.233599999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>77.509844</v>
+        <v>77.509844000000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.021531</v>
+        <v>2.1531000000000002E-2</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.517000</v>
+        <v>973.51700000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-86.073100</v>
+        <v>-86.073099999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>87.932289</v>
+        <v>87.932288999999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.024426</v>
+        <v>2.4426E-2</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.688000</v>
+        <v>982.68799999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.014000</v>
+        <v>-100.014</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>98.849196</v>
+        <v>98.849196000000006</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.027458</v>
+        <v>2.7458E-2</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.972000</v>
+        <v>993.97199999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.276000</v>
+        <v>-120.276</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>109.964045</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.030546</v>
+        <v>3.0546E-2</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.995000</v>
+        <v>-137.995</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>120.833870</v>
+        <v>120.83387</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.033565</v>
+        <v>3.3564999999999998E-2</v>
       </c>
       <c r="BF13" s="1">
-        <v>1047.480000</v>
+        <v>1047.48</v>
       </c>
       <c r="BG13" s="1">
-        <v>-218.110000</v>
+        <v>-218.11</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>131.636281</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.036566</v>
+        <v>3.6566000000000001E-2</v>
       </c>
       <c r="BK13" s="1">
-        <v>1123.820000</v>
+        <v>1123.82</v>
       </c>
       <c r="BL13" s="1">
-        <v>-346.854000</v>
+        <v>-346.85399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>142.337427</v>
+        <v>142.33742699999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.039538</v>
+        <v>3.9537999999999997E-2</v>
       </c>
       <c r="BP13" s="1">
-        <v>1249.630000</v>
+        <v>1249.6300000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-546.108000</v>
+        <v>-546.10799999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>152.862712</v>
+        <v>152.86271199999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.042462</v>
+        <v>4.2462E-2</v>
       </c>
       <c r="BU13" s="1">
-        <v>1391.030000</v>
+        <v>1391.03</v>
       </c>
       <c r="BV13" s="1">
-        <v>-758.425000</v>
+        <v>-758.42499999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>163.730418</v>
+        <v>163.73041799999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.045481</v>
+        <v>4.5481000000000001E-2</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1545.760000</v>
+        <v>1545.76</v>
       </c>
       <c r="CA13" s="1">
-        <v>-980.312000</v>
+        <v>-980.31200000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>175.970647</v>
+        <v>175.97064700000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.048881</v>
+        <v>4.8881000000000001E-2</v>
       </c>
       <c r="CE13" s="1">
-        <v>1935.290000</v>
+        <v>1935.29</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1495.730000</v>
+        <v>-1495.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>5.291319</v>
+        <v>5.2913189999999997</v>
       </c>
       <c r="B14" s="1">
-        <v>0.001470</v>
+        <v>1.47E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>900.426000</v>
+        <v>900.42600000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.368000</v>
+        <v>-198.36799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>15.703338</v>
       </c>
       <c r="G14" s="1">
-        <v>0.004362</v>
+        <v>4.3620000000000004E-3</v>
       </c>
       <c r="H14" s="1">
-        <v>917.489000</v>
+        <v>917.48900000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.033000</v>
+        <v>-168.03299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>26.520093</v>
+        <v>26.520092999999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.007367</v>
+        <v>7.3670000000000003E-3</v>
       </c>
       <c r="M14" s="1">
-        <v>939.982000</v>
+        <v>939.98199999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.098000</v>
+        <v>-120.098</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>37.097781</v>
+        <v>37.097780999999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.010305</v>
+        <v>1.0305E-2</v>
       </c>
       <c r="R14" s="1">
-        <v>946.647000</v>
+        <v>946.64700000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.433000</v>
+        <v>-104.43300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>47.596592</v>
+        <v>47.596592000000001</v>
       </c>
       <c r="V14" s="1">
-        <v>0.013221</v>
+        <v>1.3221E-2</v>
       </c>
       <c r="W14" s="1">
-        <v>953.092000</v>
+        <v>953.09199999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.279600</v>
+        <v>-90.279600000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>57.806276</v>
+        <v>57.806275999999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.016057</v>
+        <v>1.6056999999999998E-2</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.477000</v>
+        <v>960.47699999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.204800</v>
+        <v>-80.204800000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>67.665253</v>
+        <v>67.665253000000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.018796</v>
+        <v>1.8796E-2</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.511000</v>
+        <v>965.51099999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.235400</v>
+        <v>-79.235399999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>77.861512</v>
+        <v>77.861512000000005</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.021628</v>
+        <v>2.1628000000000001E-2</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.486000</v>
+        <v>973.48599999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-86.091400</v>
+        <v>-86.091399999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>88.351370</v>
+        <v>88.351370000000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.024542</v>
+        <v>2.4542000000000001E-2</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.686000</v>
+        <v>982.68600000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-99.990100</v>
+        <v>-99.990099999999998</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>99.302043</v>
+        <v>99.302042999999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.027584</v>
+        <v>2.7584000000000001E-2</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.979000</v>
+        <v>993.97900000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.281000</v>
+        <v>-120.28100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>110.254701</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.030626</v>
+        <v>3.0626E-2</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.987000</v>
+        <v>-137.98699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>121.194958</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.033665</v>
+        <v>3.3665E-2</v>
       </c>
       <c r="BF14" s="1">
-        <v>1047.490000</v>
+        <v>1047.49</v>
       </c>
       <c r="BG14" s="1">
-        <v>-218.105000</v>
+        <v>-218.10499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>132.038001</v>
+        <v>132.03800100000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.036677</v>
+        <v>3.6677000000000001E-2</v>
       </c>
       <c r="BK14" s="1">
-        <v>1123.820000</v>
+        <v>1123.82</v>
       </c>
       <c r="BL14" s="1">
-        <v>-346.885000</v>
+        <v>-346.88499999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>142.735233</v>
+        <v>142.73523299999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.039649</v>
+        <v>3.9648999999999997E-2</v>
       </c>
       <c r="BP14" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-546.098000</v>
+        <v>-546.09799999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>153.296296</v>
+        <v>153.29629600000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.042582</v>
+        <v>4.2582000000000002E-2</v>
       </c>
       <c r="BU14" s="1">
-        <v>1391.170000</v>
+        <v>1391.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-758.614000</v>
+        <v>-758.61400000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>164.153461</v>
+        <v>164.15346099999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.045598</v>
+        <v>4.5598E-2</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1545.740000</v>
+        <v>1545.74</v>
       </c>
       <c r="CA14" s="1">
-        <v>-980.356000</v>
+        <v>-980.35599999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>176.519222</v>
+        <v>176.51922200000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.049033</v>
+        <v>4.9033E-2</v>
       </c>
       <c r="CE14" s="1">
-        <v>1936.290000</v>
+        <v>1936.29</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1496.300000</v>
+        <v>-1496.3</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>5.941079</v>
+        <v>5.9410790000000002</v>
       </c>
       <c r="B15" s="1">
-        <v>0.001650</v>
+        <v>1.65E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>900.450000</v>
+        <v>900.45</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.311000</v>
+        <v>-198.31100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>16.359545</v>
+        <v>16.359545000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.004544</v>
+        <v>4.5440000000000003E-3</v>
       </c>
       <c r="H15" s="1">
-        <v>917.657000</v>
+        <v>917.65700000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.984000</v>
+        <v>-167.98400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>26.905483</v>
       </c>
       <c r="L15" s="1">
-        <v>0.007474</v>
+        <v>7.4739999999999997E-3</v>
       </c>
       <c r="M15" s="1">
-        <v>940.055000</v>
+        <v>940.05499999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.047000</v>
+        <v>-120.047</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>37.447453</v>
+        <v>37.447453000000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.010402</v>
+        <v>1.0402E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>946.641000</v>
+        <v>946.64099999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>47.942303</v>
+        <v>47.942303000000003</v>
       </c>
       <c r="V15" s="1">
-        <v>0.013317</v>
+        <v>1.3317000000000001E-2</v>
       </c>
       <c r="W15" s="1">
-        <v>953.133000</v>
+        <v>953.13300000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.305100</v>
+        <v>-90.305099999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>58.152947</v>
+        <v>58.152946999999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.016154</v>
+        <v>1.6154000000000002E-2</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.509000</v>
+        <v>960.50900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.206800</v>
+        <v>-80.206800000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>68.082854</v>
+        <v>68.082853999999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.018912</v>
+        <v>1.8912000000000002E-2</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.505000</v>
+        <v>965.505</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.226300</v>
+        <v>-79.226299999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>78.276135</v>
+        <v>78.276134999999996</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.021743</v>
+        <v>2.1742999999999998E-2</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.513000</v>
+        <v>973.51300000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-86.107500</v>
+        <v>-86.107500000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>88.662857</v>
+        <v>88.662857000000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.024629</v>
+        <v>2.4629000000000002E-2</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.686000</v>
+        <v>982.68600000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.004000</v>
+        <v>-100.004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>99.594187</v>
+        <v>99.594187000000005</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.027665</v>
+        <v>2.7664999999999999E-2</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.970000</v>
+        <v>993.97</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.277000</v>
+        <v>-120.277</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>110.612812</v>
+        <v>110.61281200000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.030726</v>
+        <v>3.0726E-2</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.998000</v>
+        <v>-137.99799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>121.555586</v>
+        <v>121.55558600000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.033765</v>
+        <v>3.3765000000000003E-2</v>
       </c>
       <c r="BF15" s="1">
-        <v>1047.480000</v>
+        <v>1047.48</v>
       </c>
       <c r="BG15" s="1">
-        <v>-218.129000</v>
+        <v>-218.12899999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>132.644111</v>
+        <v>132.64411100000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.036846</v>
+        <v>3.6845999999999997E-2</v>
       </c>
       <c r="BK15" s="1">
-        <v>1123.820000</v>
+        <v>1123.82</v>
       </c>
       <c r="BL15" s="1">
-        <v>-346.878000</v>
+        <v>-346.87799999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>143.155825</v>
+        <v>143.15582499999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.039766</v>
+        <v>3.9766000000000003E-2</v>
       </c>
       <c r="BP15" s="1">
-        <v>1249.660000</v>
+        <v>1249.6600000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-546.097000</v>
+        <v>-546.09699999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>153.721603</v>
+        <v>153.72160299999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.042700</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="BU15" s="1">
-        <v>1391.250000</v>
+        <v>1391.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-758.740000</v>
+        <v>-758.74</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>164.602837</v>
+        <v>164.60283699999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.045723</v>
+        <v>4.5723E-2</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1545.620000</v>
+        <v>1545.62</v>
       </c>
       <c r="CA15" s="1">
-        <v>-980.360000</v>
+        <v>-980.36</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>177.052948</v>
+        <v>177.05294799999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.049181</v>
+        <v>4.9181000000000002E-2</v>
       </c>
       <c r="CE15" s="1">
-        <v>1934.910000</v>
+        <v>1934.91</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1495.780000</v>
+        <v>-1495.78</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>6.316550</v>
+        <v>6.3165500000000003</v>
       </c>
       <c r="B16" s="1">
-        <v>0.001755</v>
+        <v>1.755E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>900.343000</v>
+        <v>900.34299999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.306000</v>
+        <v>-198.30600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>16.751384</v>
+        <v>16.751384000000002</v>
       </c>
       <c r="G16" s="1">
-        <v>0.004653</v>
+        <v>4.653E-3</v>
       </c>
       <c r="H16" s="1">
-        <v>917.571000</v>
+        <v>917.57100000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.193000</v>
+        <v>-168.19300000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>27.249210</v>
+        <v>27.249210000000001</v>
       </c>
       <c r="L16" s="1">
-        <v>0.007569</v>
+        <v>7.5690000000000002E-3</v>
       </c>
       <c r="M16" s="1">
-        <v>940.020000</v>
+        <v>940.02</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.037000</v>
+        <v>-120.03700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>37.797132</v>
+        <v>37.797131999999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.010499</v>
+        <v>1.0499E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>946.601000</v>
+        <v>946.601</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.435000</v>
+        <v>-104.435</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>48.290494</v>
+        <v>48.290494000000002</v>
       </c>
       <c r="V16" s="1">
-        <v>0.013414</v>
+        <v>1.3414000000000001E-2</v>
       </c>
       <c r="W16" s="1">
-        <v>953.075000</v>
+        <v>953.07500000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.278200</v>
+        <v>-90.278199999999998</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>58.566609</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.016269</v>
+        <v>1.6268999999999999E-2</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.453000</v>
+        <v>960.45299999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.138000</v>
+        <v>-80.138000000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>68.362596</v>
+        <v>68.362595999999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.018990</v>
+        <v>1.899E-2</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.499000</v>
+        <v>965.49900000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.225000</v>
+        <v>-79.224999999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>78.567286</v>
+        <v>78.567285999999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.021824</v>
+        <v>2.1824E-2</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.488000</v>
+        <v>973.48800000000006</v>
       </c>
       <c r="AM16" s="1">
-        <v>-86.104600</v>
+        <v>-86.104600000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>89.023481</v>
+        <v>89.023481000000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.024729</v>
+        <v>2.4729000000000001E-2</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.668000</v>
+        <v>982.66800000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.020000</v>
+        <v>-100.02</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>99.956267</v>
+        <v>99.956266999999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.027766</v>
+        <v>2.7765999999999999E-2</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.975000</v>
+        <v>993.97500000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.274000</v>
+        <v>-120.274</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>110.974396</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.030826</v>
+        <v>3.0825999999999999E-2</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.011000</v>
+        <v>-138.011</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>122.280702</v>
+        <v>122.28070200000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.033967</v>
+        <v>3.3966999999999997E-2</v>
       </c>
       <c r="BF16" s="1">
-        <v>1047.490000</v>
+        <v>1047.49</v>
       </c>
       <c r="BG16" s="1">
-        <v>-218.091000</v>
+        <v>-218.09100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>132.790431</v>
+        <v>132.79043100000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.036886</v>
+        <v>3.6886000000000002E-2</v>
       </c>
       <c r="BK16" s="1">
-        <v>1123.810000</v>
+        <v>1123.81</v>
       </c>
       <c r="BL16" s="1">
-        <v>-346.885000</v>
+        <v>-346.88499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>143.554113</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.039876</v>
+        <v>3.9876000000000002E-2</v>
       </c>
       <c r="BP16" s="1">
-        <v>1249.670000</v>
+        <v>1249.67</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-546.107000</v>
+        <v>-546.10699999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>154.132292</v>
+        <v>154.13229200000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.042815</v>
+        <v>4.2814999999999999E-2</v>
       </c>
       <c r="BU16" s="1">
-        <v>1391.180000</v>
+        <v>1391.18</v>
       </c>
       <c r="BV16" s="1">
-        <v>-758.954000</v>
+        <v>-758.95399999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>165.033862</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.045843</v>
+        <v>4.5843000000000002E-2</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1545.600000</v>
+        <v>1545.6</v>
       </c>
       <c r="CA16" s="1">
-        <v>-980.438000</v>
+        <v>-980.43799999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>177.876275</v>
+        <v>177.87627499999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.049410</v>
+        <v>4.9410000000000003E-2</v>
       </c>
       <c r="CE16" s="1">
-        <v>1934.200000</v>
+        <v>1934.2</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1497.020000</v>
+        <v>-1497.02</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>6.660313</v>
+        <v>6.6603130000000004</v>
       </c>
       <c r="B17" s="1">
-        <v>0.001850</v>
+        <v>1.8500000000000001E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>900.291000</v>
+        <v>900.29100000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.361000</v>
+        <v>-198.36099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>17.085688</v>
+        <v>17.085688000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0.004746</v>
+        <v>4.7460000000000002E-3</v>
       </c>
       <c r="H17" s="1">
-        <v>917.475000</v>
+        <v>917.47500000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.008000</v>
+        <v>-168.00800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>27.596410</v>
+        <v>27.596409999999999</v>
       </c>
       <c r="L17" s="1">
-        <v>0.007666</v>
+        <v>7.6660000000000001E-3</v>
       </c>
       <c r="M17" s="1">
-        <v>939.988000</v>
+        <v>939.98800000000006</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.004000</v>
+        <v>-120.004</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>38.227692</v>
+        <v>38.227691999999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.010619</v>
+        <v>1.0619E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>946.618000</v>
+        <v>946.61800000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.424000</v>
+        <v>-104.42400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>48.714574</v>
+        <v>48.714573999999999</v>
       </c>
       <c r="V17" s="1">
-        <v>0.013532</v>
+        <v>1.3532000000000001E-2</v>
       </c>
       <c r="W17" s="1">
-        <v>953.172000</v>
+        <v>953.17200000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.348400</v>
+        <v>-90.348399999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>58.855315</v>
+        <v>58.855314999999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.016349</v>
+        <v>1.6348999999999999E-2</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.502000</v>
+        <v>960.50199999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.169600</v>
+        <v>-80.169600000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>68.705828</v>
+        <v>68.705827999999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.019085</v>
+        <v>1.9085000000000001E-2</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.498000</v>
+        <v>965.49800000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.221500</v>
+        <v>-79.221500000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>78.915478</v>
+        <v>78.915477999999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.021921</v>
+        <v>2.1921E-2</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.508000</v>
+        <v>973.50800000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-86.093200</v>
+        <v>-86.093199999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>89.385071</v>
+        <v>89.385070999999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.024829</v>
+        <v>2.4829E-2</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.857000</v>
+        <v>982.85699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.103000</v>
+        <v>-100.10299999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>100.688858</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.027969</v>
+        <v>2.7969000000000001E-2</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.993000</v>
+        <v>993.99300000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.301000</v>
+        <v>-120.301</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>111.693595</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.031026</v>
+        <v>3.1026000000000001E-2</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.008000</v>
+        <v>-138.00800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>122.666095</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.034074</v>
+        <v>3.4074E-2</v>
       </c>
       <c r="BF17" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG17" s="1">
-        <v>-218.134000</v>
+        <v>-218.13399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>133.198150</v>
+        <v>133.19815</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.036999</v>
+        <v>3.6998999999999997E-2</v>
       </c>
       <c r="BK17" s="1">
-        <v>1123.850000</v>
+        <v>1123.8499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-346.890000</v>
+        <v>-346.89</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>143.978689</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.039994</v>
+        <v>3.9994000000000002E-2</v>
       </c>
       <c r="BP17" s="1">
-        <v>1249.600000</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-546.069000</v>
+        <v>-546.06899999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>154.868386</v>
+        <v>154.86838599999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.043019</v>
+        <v>4.3019000000000002E-2</v>
       </c>
       <c r="BU17" s="1">
-        <v>1391.020000</v>
+        <v>1391.02</v>
       </c>
       <c r="BV17" s="1">
-        <v>-759.067000</v>
+        <v>-759.06700000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>165.455461</v>
+        <v>165.45546100000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.045960</v>
+        <v>4.5960000000000001E-2</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1545.800000</v>
+        <v>1545.8</v>
       </c>
       <c r="CA17" s="1">
-        <v>-980.472000</v>
+        <v>-980.47199999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>178.086579</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.049468</v>
+        <v>4.9467999999999998E-2</v>
       </c>
       <c r="CE17" s="1">
-        <v>1935.520000</v>
+        <v>1935.52</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1497.810000</v>
+        <v>-1497.81</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>7.003013</v>
+        <v>7.0030130000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>0.001945</v>
+        <v>1.9449999999999999E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>900.425000</v>
+        <v>900.42499999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.267000</v>
+        <v>-198.267</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>17.431438</v>
       </c>
       <c r="G18" s="1">
-        <v>0.004842</v>
+        <v>4.8419999999999999E-3</v>
       </c>
       <c r="H18" s="1">
-        <v>917.491000</v>
+        <v>917.49099999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.890000</v>
+        <v>-167.89</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>28.020489</v>
+        <v>28.020489000000001</v>
       </c>
       <c r="L18" s="1">
-        <v>0.007783</v>
+        <v>7.783E-3</v>
       </c>
       <c r="M18" s="1">
-        <v>939.978000</v>
+        <v>939.97799999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.021000</v>
+        <v>-120.021</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>38.507403</v>
+        <v>38.507402999999996</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.010697</v>
+        <v>1.0697E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>946.606000</v>
+        <v>946.60599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.435000</v>
+        <v>-104.435</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>48.992829</v>
       </c>
       <c r="V18" s="1">
-        <v>0.013609</v>
+        <v>1.3609E-2</v>
       </c>
       <c r="W18" s="1">
-        <v>953.167000</v>
+        <v>953.16700000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.249800</v>
+        <v>-90.249799999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>59.204960</v>
+        <v>59.20496</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.016446</v>
+        <v>1.6445999999999999E-2</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.593000</v>
+        <v>960.59299999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.164100</v>
+        <v>-80.164100000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>69.051539</v>
+        <v>69.051539000000005</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.019181</v>
+        <v>1.9181E-2</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.516000</v>
+        <v>965.51599999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.213400</v>
+        <v>-79.213399999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>79.266645</v>
+        <v>79.266644999999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.022019</v>
+        <v>2.2019E-2</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.508000</v>
+        <v>973.50800000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-86.099500</v>
+        <v>-86.099500000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>90.330407</v>
+        <v>90.330406999999994</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.025092</v>
+        <v>2.5092E-2</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.682000</v>
+        <v>982.68200000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.014000</v>
+        <v>-100.014</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>101.067472</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.028074</v>
+        <v>2.8074000000000002E-2</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.978000</v>
+        <v>993.97799999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.298000</v>
+        <v>-120.298</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>112.070586</v>
+        <v>112.07058600000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.031131</v>
+        <v>3.1130999999999999E-2</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.001000</v>
+        <v>-138.001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>123.025228</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.034174</v>
+        <v>3.4174000000000003E-2</v>
       </c>
       <c r="BF18" s="1">
-        <v>1047.490000</v>
+        <v>1047.49</v>
       </c>
       <c r="BG18" s="1">
-        <v>-218.126000</v>
+        <v>-218.126</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>133.879149</v>
+        <v>133.87914900000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.037189</v>
+        <v>3.7189E-2</v>
       </c>
       <c r="BK18" s="1">
-        <v>1123.830000</v>
+        <v>1123.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-346.881000</v>
+        <v>-346.88099999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>144.683535</v>
+        <v>144.68353500000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.040190</v>
+        <v>4.0189999999999997E-2</v>
       </c>
       <c r="BP18" s="1">
-        <v>1249.640000</v>
+        <v>1249.6400000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-546.134000</v>
+        <v>-546.13400000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>154.990899</v>
+        <v>154.99089900000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.043053</v>
+        <v>4.3053000000000001E-2</v>
       </c>
       <c r="BU18" s="1">
-        <v>1390.910000</v>
+        <v>1390.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-759.234000</v>
+        <v>-759.23400000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>165.900867</v>
+        <v>165.90086700000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.046084</v>
+        <v>4.6084E-2</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1545.630000</v>
+        <v>1545.63</v>
       </c>
       <c r="CA18" s="1">
-        <v>-980.394000</v>
+        <v>-980.39400000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>178.604403</v>
+        <v>178.60440299999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.049612</v>
+        <v>4.9612000000000003E-2</v>
       </c>
       <c r="CE18" s="1">
-        <v>1935.180000</v>
+        <v>1935.18</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1497.720000</v>
+        <v>-1497.72</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>7.406261</v>
+        <v>7.4062609999999998</v>
       </c>
       <c r="B19" s="1">
-        <v>0.002057</v>
+        <v>2.0569999999999998E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>900.376000</v>
+        <v>900.37599999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.255000</v>
+        <v>-198.255</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>17.874824</v>
       </c>
       <c r="G19" s="1">
-        <v>0.004965</v>
+        <v>4.9649999999999998E-3</v>
       </c>
       <c r="H19" s="1">
-        <v>917.487000</v>
+        <v>917.48699999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.965000</v>
+        <v>-167.965</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>28.300729</v>
       </c>
       <c r="L19" s="1">
-        <v>0.007861</v>
+        <v>7.8609999999999999E-3</v>
       </c>
       <c r="M19" s="1">
-        <v>940.112000</v>
+        <v>940.11199999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.071000</v>
+        <v>-120.071</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>38.856471</v>
+        <v>38.856470999999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.010793</v>
+        <v>1.0793000000000001E-2</v>
       </c>
       <c r="R19" s="1">
-        <v>946.626000</v>
+        <v>946.62599999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.438000</v>
+        <v>-104.438</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>49.337587</v>
+        <v>49.337586999999999</v>
       </c>
       <c r="V19" s="1">
-        <v>0.013705</v>
+        <v>1.3705E-2</v>
       </c>
       <c r="W19" s="1">
-        <v>953.166000</v>
+        <v>953.16600000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.334300</v>
+        <v>-90.334299999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>59.554640</v>
+        <v>59.554639999999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.016543</v>
+        <v>1.6542999999999999E-2</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.490000</v>
+        <v>960.49</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.151800</v>
+        <v>-80.151799999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>69.735523</v>
+        <v>69.735523000000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.019371</v>
+        <v>1.9370999999999999E-2</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.511000</v>
+        <v>965.51099999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.217100</v>
+        <v>-79.217100000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>79.960560</v>
+        <v>79.960560000000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.022211</v>
+        <v>2.2211000000000002E-2</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.503000</v>
+        <v>973.50300000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-86.095200</v>
+        <v>-86.095200000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>90.707900</v>
+        <v>90.707899999999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.025197</v>
+        <v>2.5197000000000001E-2</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.685000</v>
+        <v>982.68499999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.025000</v>
+        <v>-100.02500000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>101.434344</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.028176</v>
+        <v>2.8176E-2</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.980000</v>
+        <v>993.98</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.286000</v>
+        <v>-120.286</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>112.448009</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.031236</v>
+        <v>3.1236E-2</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.430000</v>
+        <v>1003.43</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.989000</v>
+        <v>-137.989</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>123.686859</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.034357</v>
+        <v>3.4356999999999999E-2</v>
       </c>
       <c r="BF19" s="1">
-        <v>1047.510000</v>
+        <v>1047.51</v>
       </c>
       <c r="BG19" s="1">
-        <v>-218.135000</v>
+        <v>-218.13499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>134.322573</v>
+        <v>134.32257300000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.037312</v>
+        <v>3.7311999999999998E-2</v>
       </c>
       <c r="BK19" s="1">
-        <v>1123.800000</v>
+        <v>1123.8</v>
       </c>
       <c r="BL19" s="1">
-        <v>-346.917000</v>
+        <v>-346.91699999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>144.797594</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.040222</v>
+        <v>4.0222000000000001E-2</v>
       </c>
       <c r="BP19" s="1">
-        <v>1249.640000</v>
+        <v>1249.6400000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-546.139000</v>
+        <v>-546.13900000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>155.401089</v>
+        <v>155.40108900000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.043167</v>
+        <v>4.3166999999999997E-2</v>
       </c>
       <c r="BU19" s="1">
-        <v>1390.680000</v>
+        <v>1390.68</v>
       </c>
       <c r="BV19" s="1">
-        <v>-759.154000</v>
+        <v>-759.154</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>166.330900</v>
+        <v>166.33090000000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.046203</v>
+        <v>4.6203000000000001E-2</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1545.620000</v>
+        <v>1545.62</v>
       </c>
       <c r="CA19" s="1">
-        <v>-980.516000</v>
+        <v>-980.51599999999996</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>179.157938</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.049766</v>
+        <v>4.9765999999999998E-2</v>
       </c>
       <c r="CE19" s="1">
-        <v>1934.340000</v>
+        <v>1934.34</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1497.060000</v>
+        <v>-1497.06</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>7.699428</v>
+        <v>7.6994280000000002</v>
       </c>
       <c r="B20" s="1">
-        <v>0.002139</v>
+        <v>2.1389999999999998E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>900.375000</v>
+        <v>900.375</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.312000</v>
+        <v>-198.31200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>18.127782</v>
       </c>
       <c r="G20" s="1">
-        <v>0.005035</v>
+        <v>5.0350000000000004E-3</v>
       </c>
       <c r="H20" s="1">
-        <v>917.520000</v>
+        <v>917.52</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.049000</v>
+        <v>-168.04900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>28.645449</v>
+        <v>28.645448999999999</v>
       </c>
       <c r="L20" s="1">
-        <v>0.007957</v>
+        <v>7.9570000000000005E-3</v>
       </c>
       <c r="M20" s="1">
-        <v>940.011000</v>
+        <v>940.01099999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.032000</v>
+        <v>-120.032</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>39.204282</v>
+        <v>39.204281999999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.010890</v>
+        <v>1.089E-2</v>
       </c>
       <c r="R20" s="1">
-        <v>946.636000</v>
+        <v>946.63599999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.456000</v>
+        <v>-104.456</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>49.681773</v>
       </c>
       <c r="V20" s="1">
-        <v>0.013800</v>
+        <v>1.38E-2</v>
       </c>
       <c r="W20" s="1">
-        <v>953.098000</v>
+        <v>953.09799999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.287900</v>
+        <v>-90.287899999999993</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>60.250526</v>
+        <v>60.250526000000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.016736</v>
+        <v>1.6736000000000001E-2</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.417000</v>
+        <v>960.41700000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.186700</v>
+        <v>-80.186700000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>70.079747</v>
+        <v>70.079746999999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.019467</v>
+        <v>1.9467000000000002E-2</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.492000</v>
+        <v>965.49199999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.211700</v>
+        <v>-79.211699999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>80.310230</v>
+        <v>80.310230000000004</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.022308</v>
+        <v>2.2308000000000001E-2</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.488000</v>
+        <v>973.48800000000006</v>
       </c>
       <c r="AM20" s="1">
-        <v>-86.080900</v>
+        <v>-86.0809</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>91.066010</v>
+        <v>91.066010000000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.025296</v>
+        <v>2.5295999999999999E-2</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.719000</v>
+        <v>982.71900000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.000000</v>
+        <v>-100</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>102.109932</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.028364</v>
+        <v>2.8364E-2</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.972000</v>
+        <v>993.97199999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.301000</v>
+        <v>-120.301</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>113.124090</v>
+        <v>113.12409</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.031423</v>
+        <v>3.1423E-2</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.420000</v>
+        <v>1003.42</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.007000</v>
+        <v>-138.00700000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>124.146650</v>
+        <v>124.14664999999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.034485</v>
+        <v>3.4485000000000002E-2</v>
       </c>
       <c r="BF20" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG20" s="1">
-        <v>-218.125000</v>
+        <v>-218.125</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>134.697915</v>
+        <v>134.69791499999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.037416</v>
+        <v>3.7415999999999998E-2</v>
       </c>
       <c r="BK20" s="1">
-        <v>1123.850000</v>
+        <v>1123.8499999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-346.924000</v>
+        <v>-346.92399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>145.217695</v>
+        <v>145.21769499999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.040338</v>
+        <v>4.0337999999999999E-2</v>
       </c>
       <c r="BP20" s="1">
-        <v>1249.660000</v>
+        <v>1249.6600000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-546.177000</v>
+        <v>-546.17700000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>155.833601</v>
+        <v>155.83360099999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.043287</v>
+        <v>4.3286999999999999E-2</v>
       </c>
       <c r="BU20" s="1">
-        <v>1390.640000</v>
+        <v>1390.64</v>
       </c>
       <c r="BV20" s="1">
-        <v>-759.017000</v>
+        <v>-759.01700000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>166.753986</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.046321</v>
+        <v>4.6321000000000001E-2</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1545.710000</v>
+        <v>1545.71</v>
       </c>
       <c r="CA20" s="1">
-        <v>-980.473000</v>
+        <v>-980.47299999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>179.687665</v>
+        <v>179.68766500000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.049913</v>
+        <v>4.9912999999999999E-2</v>
       </c>
       <c r="CE20" s="1">
-        <v>1935.360000</v>
+        <v>1935.36</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1497.930000</v>
+        <v>-1497.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>8.042500</v>
+        <v>8.0425000000000004</v>
       </c>
       <c r="B21" s="1">
-        <v>0.002234</v>
+        <v>2.2339999999999999E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>900.192000</v>
+        <v>900.19200000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.291000</v>
+        <v>-198.291</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>18.472533</v>
+        <v>18.472532999999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.005131</v>
+        <v>5.1310000000000001E-3</v>
       </c>
       <c r="H21" s="1">
-        <v>917.405000</v>
+        <v>917.40499999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.268000</v>
+        <v>-168.268</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>28.991192</v>
+        <v>28.991192000000002</v>
       </c>
       <c r="L21" s="1">
-        <v>0.008053</v>
+        <v>8.0529999999999994E-3</v>
       </c>
       <c r="M21" s="1">
-        <v>940.036000</v>
+        <v>940.03599999999994</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.038000</v>
+        <v>-120.038</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>39.900667</v>
+        <v>39.900666999999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.011084</v>
+        <v>1.1084E-2</v>
       </c>
       <c r="R21" s="1">
-        <v>946.600000</v>
+        <v>946.6</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.466000</v>
+        <v>-104.46599999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>50.368268</v>
       </c>
       <c r="V21" s="1">
-        <v>0.013991</v>
+        <v>1.3991E-2</v>
       </c>
       <c r="W21" s="1">
-        <v>953.108000</v>
+        <v>953.10799999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.236400</v>
+        <v>-90.236400000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>60.600206</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.016833</v>
+        <v>1.6833000000000001E-2</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.530000</v>
+        <v>960.53</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.119800</v>
+        <v>-80.119799999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>70.424465</v>
+        <v>70.424464999999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.019562</v>
+        <v>1.9562E-2</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.524000</v>
+        <v>965.524</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.218200</v>
+        <v>-79.218199999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>80.658420</v>
+        <v>80.658420000000007</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.022405</v>
+        <v>2.2405000000000001E-2</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.499000</v>
+        <v>973.49900000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-86.103700</v>
+        <v>-86.103700000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>91.734869</v>
+        <v>91.734869000000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.025482</v>
+        <v>2.5482000000000001E-2</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.677000</v>
+        <v>982.67700000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.010000</v>
+        <v>-100.01</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>102.563239</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.028490</v>
+        <v>2.8490000000000001E-2</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.969000</v>
+        <v>993.96900000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.286000</v>
+        <v>-120.286</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>113.531801</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.031537</v>
+        <v>3.1537000000000003E-2</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.013000</v>
+        <v>-138.01300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>124.505755</v>
+        <v>124.50575499999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.034585</v>
+        <v>3.4584999999999998E-2</v>
       </c>
       <c r="BF21" s="1">
-        <v>1047.510000</v>
+        <v>1047.51</v>
       </c>
       <c r="BG21" s="1">
-        <v>-218.146000</v>
+        <v>-218.14599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>135.074044</v>
+        <v>135.07404399999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.037521</v>
+        <v>3.7520999999999999E-2</v>
       </c>
       <c r="BK21" s="1">
-        <v>1123.850000</v>
+        <v>1123.8499999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-346.910000</v>
+        <v>-346.91</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>145.611557</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.040448</v>
+        <v>4.0447999999999998E-2</v>
       </c>
       <c r="BP21" s="1">
-        <v>1249.650000</v>
+        <v>1249.6500000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-546.182000</v>
+        <v>-546.18200000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>156.265120</v>
+        <v>156.26512</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.043407</v>
+        <v>4.3407000000000001E-2</v>
       </c>
       <c r="BU21" s="1">
-        <v>1390.530000</v>
+        <v>1390.53</v>
       </c>
       <c r="BV21" s="1">
-        <v>-758.890000</v>
+        <v>-758.89</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>167.176612</v>
+        <v>167.17661200000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.046438</v>
+        <v>4.6438E-2</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1545.680000</v>
+        <v>1545.68</v>
       </c>
       <c r="CA21" s="1">
-        <v>-980.529000</v>
+        <v>-980.529</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>180.203010</v>
+        <v>180.20301000000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.050056</v>
+        <v>5.0056000000000003E-2</v>
       </c>
       <c r="CE21" s="1">
-        <v>1936.540000</v>
+        <v>1936.54</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1496.780000</v>
+        <v>-1496.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>8.383877</v>
       </c>
       <c r="B22" s="1">
-        <v>0.002329</v>
+        <v>2.3289999999999999E-3</v>
       </c>
       <c r="C22" s="1">
-        <v>900.376000</v>
+        <v>900.37599999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.372000</v>
+        <v>-198.37200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>19.159500</v>
+        <v>19.159500000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.005322</v>
+        <v>5.3220000000000003E-3</v>
       </c>
       <c r="H22" s="1">
-        <v>917.483000</v>
+        <v>917.48299999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.077000</v>
+        <v>-168.077</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>29.681591</v>
+        <v>29.681591000000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.008245</v>
+        <v>8.2450000000000006E-3</v>
       </c>
       <c r="M22" s="1">
-        <v>940.054000</v>
+        <v>940.05399999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.089000</v>
+        <v>-120.089</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>40.251338</v>
+        <v>40.251337999999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.011181</v>
+        <v>1.1181E-2</v>
       </c>
       <c r="R22" s="1">
-        <v>946.586000</v>
+        <v>946.58600000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.485000</v>
+        <v>-104.485</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>50.716924</v>
+        <v>50.716923999999999</v>
       </c>
       <c r="V22" s="1">
-        <v>0.014088</v>
+        <v>1.4088E-2</v>
       </c>
       <c r="W22" s="1">
-        <v>953.202000</v>
+        <v>953.202</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.293300</v>
+        <v>-90.293300000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>60.947934</v>
+        <v>60.947933999999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.016930</v>
+        <v>1.6930000000000001E-2</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.499000</v>
+        <v>960.49900000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.169400</v>
+        <v>-80.169399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>71.073729</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.019743</v>
+        <v>1.9743E-2</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.520000</v>
+        <v>965.52</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.250700</v>
+        <v>-79.250699999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>81.312147</v>
+        <v>81.312146999999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.022587</v>
+        <v>2.2586999999999999E-2</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.495000</v>
+        <v>973.495</v>
       </c>
       <c r="AM22" s="1">
-        <v>-86.082000</v>
+        <v>-86.081999999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>92.181010</v>
+        <v>92.181010000000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.025606</v>
+        <v>2.5606E-2</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.714000</v>
+        <v>982.71400000000006</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.011000</v>
+        <v>-100.011</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>102.925816</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.028591</v>
+        <v>2.8590999999999998E-2</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.970000</v>
+        <v>993.97</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.298000</v>
+        <v>-120.298</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>113.908232</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.031641</v>
+        <v>3.1641000000000002E-2</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.027000</v>
+        <v>-138.02699999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>124.867339</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.034685</v>
+        <v>3.4685000000000001E-2</v>
       </c>
       <c r="BF22" s="1">
-        <v>1047.490000</v>
+        <v>1047.49</v>
       </c>
       <c r="BG22" s="1">
-        <v>-218.145000</v>
+        <v>-218.14500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>135.488204</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.037636</v>
+        <v>3.7636000000000003E-2</v>
       </c>
       <c r="BK22" s="1">
-        <v>1123.870000</v>
+        <v>1123.8699999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-346.951000</v>
+        <v>-346.95100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>146.036590</v>
+        <v>146.03658999999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.040566</v>
+        <v>4.0565999999999998E-2</v>
       </c>
       <c r="BP22" s="1">
-        <v>1249.680000</v>
+        <v>1249.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-546.166000</v>
+        <v>-546.16600000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>156.677264</v>
+        <v>156.67726400000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.043521</v>
+        <v>4.3520999999999997E-2</v>
       </c>
       <c r="BU22" s="1">
-        <v>1390.550000</v>
+        <v>1390.55</v>
       </c>
       <c r="BV22" s="1">
-        <v>-758.759000</v>
+        <v>-758.75900000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>167.601649</v>
+        <v>167.60164900000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.046556</v>
+        <v>4.6556E-2</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1545.720000</v>
+        <v>1545.72</v>
       </c>
       <c r="CA22" s="1">
-        <v>-980.465000</v>
+        <v>-980.46500000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>180.723312</v>
+        <v>180.72331199999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.050201</v>
+        <v>5.0201000000000003E-2</v>
       </c>
       <c r="CE22" s="1">
-        <v>1935.280000</v>
+        <v>1935.28</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1495.970000</v>
+        <v>-1495.97</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>9.065412</v>
+        <v>9.0654120000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>0.002518</v>
+        <v>2.5179999999999998E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>900.327000</v>
+        <v>900.327</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.310000</v>
+        <v>-198.31</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>19.502197</v>
+        <v>19.502196999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.005417</v>
+        <v>5.4169999999999999E-3</v>
       </c>
       <c r="H23" s="1">
-        <v>917.283000</v>
+        <v>917.28300000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.032000</v>
+        <v>-168.03200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>30.034248</v>
+        <v>30.034248000000002</v>
       </c>
       <c r="L23" s="1">
-        <v>0.008343</v>
+        <v>8.3429999999999997E-3</v>
       </c>
       <c r="M23" s="1">
-        <v>939.936000</v>
+        <v>939.93600000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.140000</v>
+        <v>-120.14</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>40.601018</v>
+        <v>40.601018000000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.011278</v>
+        <v>1.1278E-2</v>
       </c>
       <c r="R23" s="1">
-        <v>946.560000</v>
+        <v>946.56</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.424000</v>
+        <v>-104.42400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>51.352794</v>
+        <v>51.352794000000003</v>
       </c>
       <c r="V23" s="1">
-        <v>0.014265</v>
+        <v>1.4265E-2</v>
       </c>
       <c r="W23" s="1">
-        <v>953.166000</v>
+        <v>953.16600000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.225300</v>
+        <v>-90.225300000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>61.601629</v>
+        <v>61.601629000000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.017112</v>
+        <v>1.7111999999999999E-2</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.492000</v>
+        <v>960.49199999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.163200</v>
+        <v>-80.163200000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>71.457136</v>
+        <v>71.457136000000006</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.019849</v>
+        <v>1.9848999999999999E-2</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.506000</v>
+        <v>965.50599999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.235200</v>
+        <v>-79.235200000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>81.702995</v>
+        <v>81.702995000000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.022695</v>
+        <v>2.2695E-2</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.504000</v>
+        <v>973.50400000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-86.116600</v>
+        <v>-86.116600000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>92.541108</v>
+        <v>92.541107999999994</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.025706</v>
+        <v>2.5706E-2</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.691000</v>
+        <v>982.69100000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.012000</v>
+        <v>-100.012</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>103.291893</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.028692</v>
+        <v>2.8691999999999999E-2</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.968000</v>
+        <v>993.96799999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.286000</v>
+        <v>-120.286</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>114.286706</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.031746</v>
+        <v>3.1746000000000003E-2</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.002000</v>
+        <v>-138.00200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>125.281001</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.034800</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="BF23" s="1">
-        <v>1047.490000</v>
+        <v>1047.49</v>
       </c>
       <c r="BG23" s="1">
-        <v>-218.134000</v>
+        <v>-218.13399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>135.849259</v>
+        <v>135.84925899999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.037736</v>
+        <v>3.7735999999999999E-2</v>
       </c>
       <c r="BK23" s="1">
-        <v>1123.850000</v>
+        <v>1123.8499999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-346.935000</v>
+        <v>-346.935</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>146.431405</v>
+        <v>146.43140500000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.040675</v>
+        <v>4.0675000000000003E-2</v>
       </c>
       <c r="BP23" s="1">
-        <v>1249.720000</v>
+        <v>1249.72</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-546.174000</v>
+        <v>-546.17399999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>157.105310</v>
+        <v>157.10531</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.043640</v>
+        <v>4.3639999999999998E-2</v>
       </c>
       <c r="BU23" s="1">
-        <v>1390.730000</v>
+        <v>1390.73</v>
       </c>
       <c r="BV23" s="1">
-        <v>-758.571000</v>
+        <v>-758.57100000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>168.018784</v>
+        <v>168.01878400000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.046672</v>
+        <v>4.6671999999999998E-2</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1545.630000</v>
+        <v>1545.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-980.519000</v>
+        <v>-980.51900000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>181.241135</v>
+        <v>181.24113500000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.050345</v>
+        <v>5.0345000000000001E-2</v>
       </c>
       <c r="CE23" s="1">
-        <v>1936.000000</v>
+        <v>1936</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1496.180000</v>
+        <v>-1496.18</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>9.411586</v>
+        <v>9.4115859999999998</v>
       </c>
       <c r="B24" s="1">
-        <v>0.002614</v>
+        <v>2.614E-3</v>
       </c>
       <c r="C24" s="1">
-        <v>900.278000</v>
+        <v>900.27800000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.298000</v>
+        <v>-198.298</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>19.852373</v>
       </c>
       <c r="G24" s="1">
-        <v>0.005515</v>
+        <v>5.5149999999999999E-3</v>
       </c>
       <c r="H24" s="1">
-        <v>917.645000</v>
+        <v>917.64499999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.054000</v>
+        <v>-168.054</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>30.378470</v>
+        <v>30.37847</v>
       </c>
       <c r="L24" s="1">
-        <v>0.008438</v>
+        <v>8.4379999999999993E-3</v>
       </c>
       <c r="M24" s="1">
-        <v>939.976000</v>
+        <v>939.976</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.970000</v>
+        <v>-119.97</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>41.251273</v>
+        <v>41.251272999999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.011459</v>
+        <v>1.1459E-2</v>
       </c>
       <c r="R24" s="1">
-        <v>946.653000</v>
+        <v>946.65300000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.423000</v>
+        <v>-104.423</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>51.742156</v>
+        <v>51.742156000000001</v>
       </c>
       <c r="V24" s="1">
-        <v>0.014373</v>
+        <v>1.4373E-2</v>
       </c>
       <c r="W24" s="1">
-        <v>953.193000</v>
+        <v>953.19299999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.324800</v>
+        <v>-90.324799999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>61.994462</v>
+        <v>61.994461999999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.017221</v>
+        <v>1.7221E-2</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.466000</v>
+        <v>960.46600000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.162900</v>
+        <v>-80.162899999999993</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>71.796928</v>
+        <v>71.796927999999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.019944</v>
+        <v>1.9944E-2</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.503000</v>
+        <v>965.50300000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.250000</v>
+        <v>-79.25</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>82.045730</v>
+        <v>82.045730000000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.022790</v>
+        <v>2.2790000000000001E-2</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.488000</v>
+        <v>973.48800000000006</v>
       </c>
       <c r="AM24" s="1">
-        <v>-86.109500</v>
+        <v>-86.109499999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>92.900676</v>
+        <v>92.900676000000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.025806</v>
+        <v>2.5805999999999999E-2</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.680000</v>
+        <v>982.68</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.022000</v>
+        <v>-100.02200000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>103.712470</v>
+        <v>103.71247</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.028809</v>
+        <v>2.8809000000000001E-2</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.977000</v>
+        <v>993.97699999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.301000</v>
+        <v>-120.301</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>114.714728</v>
+        <v>114.71472799999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.031865</v>
+        <v>3.1864999999999997E-2</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.006000</v>
+        <v>-138.006</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>125.590008</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.034886</v>
+        <v>3.4886E-2</v>
       </c>
       <c r="BF24" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG24" s="1">
-        <v>-218.150000</v>
+        <v>-218.15</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>136.225724</v>
+        <v>136.22572400000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.037840</v>
+        <v>3.7839999999999999E-2</v>
       </c>
       <c r="BK24" s="1">
-        <v>1123.840000</v>
+        <v>1123.8399999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-346.897000</v>
+        <v>-346.89699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>146.854493</v>
+        <v>146.85449299999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.040793</v>
+        <v>4.0793000000000003E-2</v>
       </c>
       <c r="BP24" s="1">
-        <v>1249.710000</v>
+        <v>1249.71</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-546.181000</v>
+        <v>-546.18100000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>157.534878</v>
+        <v>157.53487799999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.043760</v>
+        <v>4.376E-2</v>
       </c>
       <c r="BU24" s="1">
-        <v>1390.970000</v>
+        <v>1390.97</v>
       </c>
       <c r="BV24" s="1">
-        <v>-758.602000</v>
+        <v>-758.60199999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>168.470145</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.046797</v>
+        <v>4.6796999999999998E-2</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1545.690000</v>
+        <v>1545.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-980.621000</v>
+        <v>-980.62099999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>181.791198</v>
+        <v>181.79119800000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.050498</v>
+        <v>5.0498000000000001E-2</v>
       </c>
       <c r="CE24" s="1">
-        <v>1936.480000</v>
+        <v>1936.48</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1497.160000</v>
+        <v>-1497.16</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>9.760801</v>
+        <v>9.7608010000000007</v>
       </c>
       <c r="B25" s="1">
-        <v>0.002711</v>
+        <v>2.7109999999999999E-3</v>
       </c>
       <c r="C25" s="1">
-        <v>900.300000</v>
+        <v>900.3</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.329000</v>
+        <v>-198.32900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>20.513045</v>
+        <v>20.513045000000002</v>
       </c>
       <c r="G25" s="1">
-        <v>0.005698</v>
+        <v>5.6979999999999999E-3</v>
       </c>
       <c r="H25" s="1">
-        <v>917.418000</v>
+        <v>917.41800000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.072000</v>
+        <v>-168.072</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>31.021286</v>
       </c>
       <c r="L25" s="1">
-        <v>0.008617</v>
+        <v>8.6169999999999997E-3</v>
       </c>
       <c r="M25" s="1">
-        <v>940.027000</v>
+        <v>940.02700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.033000</v>
+        <v>-120.033</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>41.644601</v>
+        <v>41.644601000000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.011568</v>
+        <v>1.1568E-2</v>
       </c>
       <c r="R25" s="1">
-        <v>946.638000</v>
+        <v>946.63800000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.441000</v>
+        <v>-104.441</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>52.085916</v>
+        <v>52.085915999999997</v>
       </c>
       <c r="V25" s="1">
-        <v>0.014468</v>
+        <v>1.4468E-2</v>
       </c>
       <c r="W25" s="1">
-        <v>953.128000</v>
+        <v>953.12800000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.308700</v>
+        <v>-90.308700000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>62.342684</v>
+        <v>62.342683999999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.017317</v>
+        <v>1.7316999999999999E-2</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.479000</v>
+        <v>960.47900000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.155300</v>
+        <v>-80.155299999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>72.147567</v>
+        <v>72.147566999999995</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.020041</v>
+        <v>2.0041E-2</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.488000</v>
+        <v>965.48800000000006</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.238600</v>
+        <v>-79.238600000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>82.408307</v>
+        <v>82.408306999999994</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.022891</v>
+        <v>2.2891000000000002E-2</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.500000</v>
+        <v>973.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>-86.101700</v>
+        <v>-86.101699999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>93.313843</v>
+        <v>93.313843000000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.025921</v>
+        <v>2.5921E-2</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.703000</v>
+        <v>982.70299999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.032000</v>
+        <v>-100.032</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>104.023990</v>
+        <v>104.02399</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.028896</v>
+        <v>2.8896000000000002E-2</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.966000</v>
+        <v>993.96600000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.292000</v>
+        <v>-120.292</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>115.005384</v>
+        <v>115.00538400000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.031946</v>
+        <v>3.1946000000000002E-2</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.006000</v>
+        <v>-138.006</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>125.951593</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.034987</v>
+        <v>3.4986999999999997E-2</v>
       </c>
       <c r="BF25" s="1">
-        <v>1047.500000</v>
+        <v>1047.5</v>
       </c>
       <c r="BG25" s="1">
-        <v>-218.152000</v>
+        <v>-218.15199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>136.599732</v>
+        <v>136.59973199999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.037944</v>
+        <v>3.7943999999999999E-2</v>
       </c>
       <c r="BK25" s="1">
-        <v>1123.860000</v>
+        <v>1123.8599999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-346.950000</v>
+        <v>-346.95</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>147.250332</v>
+        <v>147.25033199999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.040903</v>
+        <v>4.0903000000000002E-2</v>
       </c>
       <c r="BP25" s="1">
-        <v>1249.680000</v>
+        <v>1249.68</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-546.205000</v>
+        <v>-546.20500000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>157.957934</v>
+        <v>157.95793399999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.043877</v>
+        <v>4.3876999999999999E-2</v>
       </c>
       <c r="BU25" s="1">
-        <v>1391.090000</v>
+        <v>1391.09</v>
       </c>
       <c r="BV25" s="1">
-        <v>-758.661000</v>
+        <v>-758.66099999999994</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>168.886816</v>
+        <v>168.88681600000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.046913</v>
+        <v>4.6913000000000003E-2</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1545.720000</v>
+        <v>1545.72</v>
       </c>
       <c r="CA25" s="1">
-        <v>-980.534000</v>
+        <v>-980.53399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>182.322910</v>
+        <v>182.32291000000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.050645</v>
+        <v>5.0645000000000003E-2</v>
       </c>
       <c r="CE25" s="1">
-        <v>1935.610000</v>
+        <v>1935.61</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1496.240000</v>
+        <v>-1496.24</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>10.400113</v>
+        <v>10.400112999999999</v>
       </c>
       <c r="B26" s="1">
-        <v>0.002889</v>
+        <v>2.8890000000000001E-3</v>
       </c>
       <c r="C26" s="1">
-        <v>900.399000</v>
+        <v>900.399</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.361000</v>
+        <v>-198.36099999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>20.890499</v>
+        <v>20.890498999999998</v>
       </c>
       <c r="G26" s="1">
-        <v>0.005803</v>
+        <v>5.803E-3</v>
       </c>
       <c r="H26" s="1">
-        <v>917.620000</v>
+        <v>917.62</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.039000</v>
+        <v>-168.03899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>31.411674</v>
+        <v>31.411674000000001</v>
       </c>
       <c r="L26" s="1">
-        <v>0.008725</v>
+        <v>8.7250000000000001E-3</v>
       </c>
       <c r="M26" s="1">
-        <v>939.981000</v>
+        <v>939.98099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.039000</v>
+        <v>-120.039</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>41.993319</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.011665</v>
+        <v>1.1665E-2</v>
       </c>
       <c r="R26" s="1">
-        <v>946.631000</v>
+        <v>946.63099999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.471000</v>
+        <v>-104.471</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>52.427626</v>
+        <v>52.427625999999997</v>
       </c>
       <c r="V26" s="1">
-        <v>0.014563</v>
+        <v>1.4563E-2</v>
       </c>
       <c r="W26" s="1">
-        <v>953.182000</v>
+        <v>953.18200000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.306800</v>
+        <v>-90.306799999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>62.694347</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.017415</v>
+        <v>1.7415E-2</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.369000</v>
+        <v>960.36900000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.188000</v>
+        <v>-80.188000000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>72.574159</v>
+        <v>72.574158999999995</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.020159</v>
+        <v>2.0159E-2</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.490000</v>
+        <v>965.49</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.260500</v>
+        <v>-79.260499999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>82.834411</v>
+        <v>82.834411000000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.023010</v>
+        <v>2.3009999999999999E-2</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.492000</v>
+        <v>973.49199999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-86.089800</v>
+        <v>-86.089799999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>93.618915</v>
+        <v>93.618915000000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.026005</v>
+        <v>2.6005E-2</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.702000</v>
+        <v>982.702</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.025000</v>
+        <v>-100.02500000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>104.385077</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.028996</v>
+        <v>2.8996000000000001E-2</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.983000</v>
+        <v>993.98299999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.303000</v>
+        <v>-120.303</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>115.441864</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.032067</v>
+        <v>3.2066999999999998E-2</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.005000</v>
+        <v>-138.005</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>126.312681</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.035087</v>
+        <v>3.5087E-2</v>
       </c>
       <c r="BF26" s="1">
-        <v>1047.510000</v>
+        <v>1047.51</v>
       </c>
       <c r="BG26" s="1">
-        <v>-218.162000</v>
+        <v>-218.16200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>137.352666</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.038154</v>
+        <v>3.8154E-2</v>
       </c>
       <c r="BK26" s="1">
-        <v>1123.860000</v>
+        <v>1123.8599999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-346.958000</v>
+        <v>-346.95800000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>147.667437</v>
+        <v>147.66743700000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.041019</v>
+        <v>4.1019E-2</v>
       </c>
       <c r="BP26" s="1">
-        <v>1249.680000</v>
+        <v>1249.68</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-546.184000</v>
+        <v>-546.18399999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>158.376559</v>
+        <v>158.37655899999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.043993</v>
+        <v>4.3992999999999997E-2</v>
       </c>
       <c r="BU26" s="1">
-        <v>1391.220000</v>
+        <v>1391.22</v>
       </c>
       <c r="BV26" s="1">
-        <v>-758.722000</v>
+        <v>-758.72199999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>169.309375</v>
+        <v>169.30937499999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.047030</v>
+        <v>4.7030000000000002E-2</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1545.750000</v>
+        <v>1545.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-980.664000</v>
+        <v>-980.66399999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>183.144780</v>
+        <v>183.14478</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.050874</v>
+        <v>5.0874000000000003E-2</v>
       </c>
       <c r="CE26" s="1">
-        <v>1934.730000</v>
+        <v>1934.73</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1496.860000</v>
+        <v>-1496.86</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>